--- a/qashach.xlsx
+++ b/qashach.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.88.32\Server-dir\Argisht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FishFarm\Fish_Farm-main (3)\Fish_Farm-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,9 +82,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,43 +259,41 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -531,18 +526,18 @@
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="16" width="7.625" customWidth="1"/>
-    <col min="17" max="17" width="10.625" customWidth="1"/>
-    <col min="18" max="18" width="7.625" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="11.375" customWidth="1"/>
-    <col min="21" max="21" width="10.5" customWidth="1"/>
-    <col min="22" max="22" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="4" customWidth="1"/>
+    <col min="9" max="16" width="7.625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="11.75" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="10.5" style="4" customWidth="1"/>
+    <col min="22" max="22" width="7.625" style="4" customWidth="1"/>
     <col min="23" max="23" width="9.875" customWidth="1"/>
     <col min="24" max="24" width="8.125" customWidth="1"/>
     <col min="25" max="25" width="7.625" customWidth="1"/>
@@ -556,16 +551,16 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
       <c r="D3" s="16" t="s">
@@ -598,4061 +593,4061 @@
         <v>7</v>
       </c>
       <c r="S3" s="15"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:26" ht="24" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="W5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W6" s="13"/>
-      <c r="Z6" s="13"/>
+      <c r="W6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W7" s="13"/>
-      <c r="Z7" s="13"/>
+      <c r="W7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W8" s="13"/>
-      <c r="Z8" s="13"/>
+      <c r="W8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="W9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W10" s="13"/>
-      <c r="Z10" s="13"/>
+      <c r="W10" s="3"/>
+      <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="W11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W12" s="13"/>
-      <c r="Z12" s="13"/>
+      <c r="W12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W13" s="13"/>
-      <c r="Z13" s="13"/>
+      <c r="W13" s="3"/>
+      <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W14" s="13"/>
-      <c r="Z14" s="13"/>
+      <c r="W14" s="3"/>
+      <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W15" s="13"/>
-      <c r="Z15" s="13"/>
+      <c r="W15" s="3"/>
+      <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="W16" s="13"/>
-      <c r="Z16" s="13"/>
+      <c r="W16" s="3"/>
+      <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="23:26" x14ac:dyDescent="0.25">
-      <c r="W17" s="13"/>
-      <c r="Z17" s="13"/>
+      <c r="W17" s="3"/>
+      <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="23:26" x14ac:dyDescent="0.25">
-      <c r="W18" s="13"/>
-      <c r="Z18" s="13"/>
+      <c r="W18" s="3"/>
+      <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="23:26" x14ac:dyDescent="0.25">
-      <c r="W19" s="13"/>
-      <c r="Z19" s="13"/>
+      <c r="W19" s="3"/>
+      <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="23:26" x14ac:dyDescent="0.25">
-      <c r="W20" s="13"/>
-      <c r="Z20" s="13"/>
+      <c r="W20" s="3"/>
+      <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W21" s="13"/>
-      <c r="Z21" s="13"/>
+      <c r="W21" s="3"/>
+      <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W22" s="13"/>
-      <c r="Z22" s="13"/>
+      <c r="W22" s="3"/>
+      <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W23" s="13"/>
-      <c r="Z23" s="13"/>
+      <c r="W23" s="3"/>
+      <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W24" s="13"/>
-      <c r="Z24" s="13"/>
+      <c r="W24" s="3"/>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W25" s="13"/>
-      <c r="Z25" s="13"/>
+      <c r="W25" s="3"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W26" s="13"/>
-      <c r="Z26" s="13"/>
+      <c r="W26" s="3"/>
+      <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W27" s="13"/>
-      <c r="Z27" s="13"/>
+      <c r="W27" s="3"/>
+      <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W28" s="13"/>
-      <c r="Z28" s="13"/>
+      <c r="W28" s="3"/>
+      <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W29" s="13"/>
-      <c r="Z29" s="13"/>
+      <c r="W29" s="3"/>
+      <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W30" s="13"/>
-      <c r="Z30" s="13"/>
+      <c r="W30" s="3"/>
+      <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W31" s="13"/>
-      <c r="Z31" s="13"/>
+      <c r="W31" s="3"/>
+      <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W32" s="13"/>
-      <c r="Z32" s="13"/>
+      <c r="W32" s="3"/>
+      <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W33" s="13"/>
-      <c r="Z33" s="13"/>
+      <c r="W33" s="3"/>
+      <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W34" s="13"/>
-      <c r="Z34" s="13"/>
+      <c r="W34" s="3"/>
+      <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W35" s="13"/>
-      <c r="Z35" s="13"/>
+      <c r="W35" s="3"/>
+      <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W36" s="13"/>
-      <c r="Z36" s="13"/>
+      <c r="W36" s="3"/>
+      <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W37" s="13"/>
-      <c r="Z37" s="13"/>
+      <c r="W37" s="3"/>
+      <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W38" s="13"/>
-      <c r="Z38" s="13"/>
+      <c r="W38" s="3"/>
+      <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W39" s="13"/>
-      <c r="Z39" s="13"/>
+      <c r="W39" s="3"/>
+      <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W40" s="13"/>
-      <c r="Z40" s="13"/>
+      <c r="W40" s="3"/>
+      <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W41" s="13"/>
-      <c r="Z41" s="13"/>
+      <c r="W41" s="3"/>
+      <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W42" s="13"/>
-      <c r="Z42" s="13"/>
+      <c r="W42" s="3"/>
+      <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W43" s="13"/>
-      <c r="Z43" s="13"/>
+      <c r="W43" s="3"/>
+      <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W44" s="13"/>
-      <c r="Z44" s="13"/>
+      <c r="W44" s="3"/>
+      <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W45" s="13"/>
-      <c r="Z45" s="13"/>
+      <c r="W45" s="3"/>
+      <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W46" s="13"/>
-      <c r="Z46" s="13"/>
+      <c r="W46" s="3"/>
+      <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W47" s="13"/>
-      <c r="Z47" s="13"/>
+      <c r="W47" s="3"/>
+      <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W48" s="13"/>
-      <c r="Z48" s="13"/>
+      <c r="W48" s="3"/>
+      <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W49" s="13"/>
-      <c r="Z49" s="13"/>
+      <c r="W49" s="3"/>
+      <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W50" s="13"/>
-      <c r="Z50" s="13"/>
+      <c r="W50" s="3"/>
+      <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W51" s="13"/>
-      <c r="Z51" s="13"/>
+      <c r="W51" s="3"/>
+      <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W52" s="13"/>
-      <c r="Z52" s="13"/>
+      <c r="W52" s="3"/>
+      <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W53" s="13"/>
-      <c r="Z53" s="13"/>
+      <c r="W53" s="3"/>
+      <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W54" s="13"/>
-      <c r="Z54" s="13"/>
+      <c r="W54" s="3"/>
+      <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W55" s="13"/>
-      <c r="Z55" s="13"/>
+      <c r="W55" s="3"/>
+      <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W56" s="13"/>
-      <c r="Z56" s="13"/>
+      <c r="W56" s="3"/>
+      <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W57" s="13"/>
-      <c r="Z57" s="13"/>
+      <c r="W57" s="3"/>
+      <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W58" s="13"/>
-      <c r="Z58" s="13"/>
+      <c r="W58" s="3"/>
+      <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W59" s="13"/>
-      <c r="Z59" s="13"/>
+      <c r="W59" s="3"/>
+      <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W60" s="13"/>
-      <c r="Z60" s="13"/>
+      <c r="W60" s="3"/>
+      <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W61" s="13"/>
-      <c r="Z61" s="13"/>
+      <c r="W61" s="3"/>
+      <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W62" s="13"/>
-      <c r="Z62" s="13"/>
+      <c r="W62" s="3"/>
+      <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W63" s="13"/>
-      <c r="Z63" s="13"/>
+      <c r="W63" s="3"/>
+      <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W64" s="13"/>
-      <c r="Z64" s="13"/>
+      <c r="W64" s="3"/>
+      <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W65" s="13"/>
-      <c r="Z65" s="13"/>
+      <c r="W65" s="3"/>
+      <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W66" s="13"/>
-      <c r="Z66" s="13"/>
+      <c r="W66" s="3"/>
+      <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W67" s="13"/>
-      <c r="Z67" s="13"/>
+      <c r="W67" s="3"/>
+      <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W68" s="13"/>
-      <c r="Z68" s="13"/>
+      <c r="W68" s="3"/>
+      <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W69" s="13"/>
-      <c r="Z69" s="13"/>
+      <c r="W69" s="3"/>
+      <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W70" s="13"/>
-      <c r="Z70" s="13"/>
+      <c r="W70" s="3"/>
+      <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W71" s="13"/>
-      <c r="Z71" s="13"/>
+      <c r="W71" s="3"/>
+      <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W72" s="13"/>
-      <c r="Z72" s="13"/>
+      <c r="W72" s="3"/>
+      <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W73" s="13"/>
-      <c r="Z73" s="13"/>
+      <c r="W73" s="3"/>
+      <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W74" s="13"/>
-      <c r="Z74" s="13"/>
+      <c r="W74" s="3"/>
+      <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W75" s="13"/>
-      <c r="Z75" s="13"/>
+      <c r="W75" s="3"/>
+      <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W76" s="13"/>
-      <c r="Z76" s="13"/>
+      <c r="W76" s="3"/>
+      <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W77" s="13"/>
-      <c r="Z77" s="13"/>
+      <c r="W77" s="3"/>
+      <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W78" s="13"/>
-      <c r="Z78" s="13"/>
+      <c r="W78" s="3"/>
+      <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W79" s="13"/>
-      <c r="Z79" s="13"/>
+      <c r="W79" s="3"/>
+      <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W80" s="13"/>
-      <c r="Z80" s="13"/>
+      <c r="W80" s="3"/>
+      <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W81" s="13"/>
-      <c r="Z81" s="13"/>
+      <c r="W81" s="3"/>
+      <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W82" s="13"/>
-      <c r="Z82" s="13"/>
+      <c r="W82" s="3"/>
+      <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W83" s="13"/>
-      <c r="Z83" s="13"/>
+      <c r="W83" s="3"/>
+      <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W84" s="13"/>
-      <c r="Z84" s="13"/>
+      <c r="W84" s="3"/>
+      <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W85" s="13"/>
-      <c r="Z85" s="13"/>
+      <c r="W85" s="3"/>
+      <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W86" s="13"/>
-      <c r="Z86" s="13"/>
+      <c r="W86" s="3"/>
+      <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W87" s="13"/>
-      <c r="Z87" s="13"/>
+      <c r="W87" s="3"/>
+      <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W88" s="13"/>
-      <c r="Z88" s="13"/>
+      <c r="W88" s="3"/>
+      <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W89" s="13"/>
-      <c r="Z89" s="13"/>
+      <c r="W89" s="3"/>
+      <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W90" s="13"/>
-      <c r="Z90" s="13"/>
+      <c r="W90" s="3"/>
+      <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W91" s="13"/>
-      <c r="Z91" s="13"/>
+      <c r="W91" s="3"/>
+      <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W92" s="13"/>
-      <c r="Z92" s="13"/>
+      <c r="W92" s="3"/>
+      <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W93" s="13"/>
-      <c r="Z93" s="13"/>
+      <c r="W93" s="3"/>
+      <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W94" s="13"/>
-      <c r="Z94" s="13"/>
+      <c r="W94" s="3"/>
+      <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W95" s="13"/>
-      <c r="Z95" s="13"/>
+      <c r="W95" s="3"/>
+      <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W96" s="13"/>
-      <c r="Z96" s="13"/>
+      <c r="W96" s="3"/>
+      <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W97" s="13"/>
-      <c r="Z97" s="13"/>
+      <c r="W97" s="3"/>
+      <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W98" s="13"/>
-      <c r="Z98" s="13"/>
+      <c r="W98" s="3"/>
+      <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W99" s="13"/>
-      <c r="Z99" s="13"/>
+      <c r="W99" s="3"/>
+      <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W100" s="13"/>
-      <c r="Z100" s="13"/>
+      <c r="W100" s="3"/>
+      <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W101" s="13"/>
-      <c r="Z101" s="13"/>
+      <c r="W101" s="3"/>
+      <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W102" s="13"/>
-      <c r="Z102" s="13"/>
+      <c r="W102" s="3"/>
+      <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W103" s="13"/>
-      <c r="Z103" s="13"/>
+      <c r="W103" s="3"/>
+      <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W104" s="13"/>
-      <c r="Z104" s="13"/>
+      <c r="W104" s="3"/>
+      <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W105" s="13"/>
-      <c r="Z105" s="13"/>
+      <c r="W105" s="3"/>
+      <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W106" s="13"/>
-      <c r="Z106" s="13"/>
+      <c r="W106" s="3"/>
+      <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W107" s="13"/>
-      <c r="Z107" s="13"/>
+      <c r="W107" s="3"/>
+      <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W108" s="13"/>
-      <c r="Z108" s="13"/>
+      <c r="W108" s="3"/>
+      <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W109" s="13"/>
-      <c r="Z109" s="13"/>
+      <c r="W109" s="3"/>
+      <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W110" s="13"/>
-      <c r="Z110" s="13"/>
+      <c r="W110" s="3"/>
+      <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W111" s="13"/>
-      <c r="Z111" s="13"/>
+      <c r="W111" s="3"/>
+      <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W112" s="13"/>
-      <c r="Z112" s="13"/>
+      <c r="W112" s="3"/>
+      <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W113" s="13"/>
-      <c r="Z113" s="13"/>
+      <c r="W113" s="3"/>
+      <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W114" s="13"/>
-      <c r="Z114" s="13"/>
+      <c r="W114" s="3"/>
+      <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W115" s="13"/>
-      <c r="Z115" s="13"/>
+      <c r="W115" s="3"/>
+      <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W116" s="13"/>
-      <c r="Z116" s="13"/>
+      <c r="W116" s="3"/>
+      <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W117" s="13"/>
-      <c r="Z117" s="13"/>
+      <c r="W117" s="3"/>
+      <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W118" s="13"/>
-      <c r="Z118" s="13"/>
+      <c r="W118" s="3"/>
+      <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W119" s="13"/>
-      <c r="Z119" s="13"/>
+      <c r="W119" s="3"/>
+      <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W120" s="13"/>
-      <c r="Z120" s="13"/>
+      <c r="W120" s="3"/>
+      <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W121" s="13"/>
-      <c r="Z121" s="13"/>
+      <c r="W121" s="3"/>
+      <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W122" s="13"/>
-      <c r="Z122" s="13"/>
+      <c r="W122" s="3"/>
+      <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W123" s="13"/>
-      <c r="Z123" s="13"/>
+      <c r="W123" s="3"/>
+      <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W124" s="13"/>
-      <c r="Z124" s="13"/>
+      <c r="W124" s="3"/>
+      <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W125" s="13"/>
-      <c r="Z125" s="13"/>
+      <c r="W125" s="3"/>
+      <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W126" s="13"/>
-      <c r="Z126" s="13"/>
+      <c r="W126" s="3"/>
+      <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W127" s="13"/>
-      <c r="Z127" s="13"/>
+      <c r="W127" s="3"/>
+      <c r="Z127" s="3"/>
     </row>
     <row r="128" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W128" s="13"/>
-      <c r="Z128" s="13"/>
+      <c r="W128" s="3"/>
+      <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W129" s="13"/>
-      <c r="Z129" s="13"/>
+      <c r="W129" s="3"/>
+      <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W130" s="13"/>
-      <c r="Z130" s="13"/>
+      <c r="W130" s="3"/>
+      <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W131" s="13"/>
-      <c r="Z131" s="13"/>
+      <c r="W131" s="3"/>
+      <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W132" s="13"/>
-      <c r="Z132" s="13"/>
+      <c r="W132" s="3"/>
+      <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W133" s="13"/>
-      <c r="Z133" s="13"/>
+      <c r="W133" s="3"/>
+      <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W134" s="13"/>
-      <c r="Z134" s="13"/>
+      <c r="W134" s="3"/>
+      <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W135" s="13"/>
-      <c r="Z135" s="13"/>
+      <c r="W135" s="3"/>
+      <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W136" s="13"/>
-      <c r="Z136" s="13"/>
+      <c r="W136" s="3"/>
+      <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W137" s="13"/>
-      <c r="Z137" s="13"/>
+      <c r="W137" s="3"/>
+      <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W138" s="13"/>
-      <c r="Z138" s="13"/>
+      <c r="W138" s="3"/>
+      <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W139" s="13"/>
-      <c r="Z139" s="13"/>
+      <c r="W139" s="3"/>
+      <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W140" s="13"/>
-      <c r="Z140" s="13"/>
+      <c r="W140" s="3"/>
+      <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W141" s="13"/>
-      <c r="Z141" s="13"/>
+      <c r="W141" s="3"/>
+      <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W142" s="13"/>
-      <c r="Z142" s="13"/>
+      <c r="W142" s="3"/>
+      <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W143" s="13"/>
-      <c r="Z143" s="13"/>
+      <c r="W143" s="3"/>
+      <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W144" s="13"/>
-      <c r="Z144" s="13"/>
+      <c r="W144" s="3"/>
+      <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W145" s="13"/>
-      <c r="Z145" s="13"/>
+      <c r="W145" s="3"/>
+      <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W146" s="13"/>
-      <c r="Z146" s="13"/>
+      <c r="W146" s="3"/>
+      <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W147" s="13"/>
-      <c r="Z147" s="13"/>
+      <c r="W147" s="3"/>
+      <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W148" s="13"/>
-      <c r="Z148" s="13"/>
+      <c r="W148" s="3"/>
+      <c r="Z148" s="3"/>
     </row>
     <row r="149" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W149" s="13"/>
-      <c r="Z149" s="13"/>
+      <c r="W149" s="3"/>
+      <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W150" s="13"/>
-      <c r="Z150" s="13"/>
+      <c r="W150" s="3"/>
+      <c r="Z150" s="3"/>
     </row>
     <row r="151" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W151" s="13"/>
-      <c r="Z151" s="13"/>
+      <c r="W151" s="3"/>
+      <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W152" s="13"/>
-      <c r="Z152" s="13"/>
+      <c r="W152" s="3"/>
+      <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W153" s="13"/>
-      <c r="Z153" s="13"/>
+      <c r="W153" s="3"/>
+      <c r="Z153" s="3"/>
     </row>
     <row r="154" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W154" s="13"/>
-      <c r="Z154" s="13"/>
+      <c r="W154" s="3"/>
+      <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W155" s="13"/>
-      <c r="Z155" s="13"/>
+      <c r="W155" s="3"/>
+      <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W156" s="13"/>
-      <c r="Z156" s="13"/>
+      <c r="W156" s="3"/>
+      <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W157" s="13"/>
-      <c r="Z157" s="13"/>
+      <c r="W157" s="3"/>
+      <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W158" s="13"/>
-      <c r="Z158" s="13"/>
+      <c r="W158" s="3"/>
+      <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W159" s="13"/>
-      <c r="Z159" s="13"/>
+      <c r="W159" s="3"/>
+      <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W160" s="13"/>
-      <c r="Z160" s="13"/>
+      <c r="W160" s="3"/>
+      <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W161" s="13"/>
-      <c r="Z161" s="13"/>
+      <c r="W161" s="3"/>
+      <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W162" s="13"/>
-      <c r="Z162" s="13"/>
+      <c r="W162" s="3"/>
+      <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W163" s="13"/>
-      <c r="Z163" s="13"/>
+      <c r="W163" s="3"/>
+      <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W164" s="13"/>
-      <c r="Z164" s="13"/>
+      <c r="W164" s="3"/>
+      <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W165" s="13"/>
-      <c r="Z165" s="13"/>
+      <c r="W165" s="3"/>
+      <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W166" s="13"/>
-      <c r="Z166" s="13"/>
+      <c r="W166" s="3"/>
+      <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W167" s="13"/>
-      <c r="Z167" s="13"/>
+      <c r="W167" s="3"/>
+      <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W168" s="13"/>
-      <c r="Z168" s="13"/>
+      <c r="W168" s="3"/>
+      <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W169" s="13"/>
-      <c r="Z169" s="13"/>
+      <c r="W169" s="3"/>
+      <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W170" s="13"/>
-      <c r="Z170" s="13"/>
+      <c r="W170" s="3"/>
+      <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W171" s="13"/>
-      <c r="Z171" s="13"/>
+      <c r="W171" s="3"/>
+      <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W172" s="13"/>
-      <c r="Z172" s="13"/>
+      <c r="W172" s="3"/>
+      <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W173" s="13"/>
-      <c r="Z173" s="13"/>
+      <c r="W173" s="3"/>
+      <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W174" s="13"/>
-      <c r="Z174" s="13"/>
+      <c r="W174" s="3"/>
+      <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W175" s="13"/>
-      <c r="Z175" s="13"/>
+      <c r="W175" s="3"/>
+      <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W176" s="13"/>
-      <c r="Z176" s="13"/>
+      <c r="W176" s="3"/>
+      <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W177" s="13"/>
-      <c r="Z177" s="13"/>
+      <c r="W177" s="3"/>
+      <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W178" s="13"/>
-      <c r="Z178" s="13"/>
+      <c r="W178" s="3"/>
+      <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W179" s="13"/>
-      <c r="Z179" s="13"/>
+      <c r="W179" s="3"/>
+      <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W180" s="13"/>
-      <c r="Z180" s="13"/>
+      <c r="W180" s="3"/>
+      <c r="Z180" s="3"/>
     </row>
     <row r="181" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W181" s="13"/>
-      <c r="Z181" s="13"/>
+      <c r="W181" s="3"/>
+      <c r="Z181" s="3"/>
     </row>
     <row r="182" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W182" s="13"/>
-      <c r="Z182" s="13"/>
+      <c r="W182" s="3"/>
+      <c r="Z182" s="3"/>
     </row>
     <row r="183" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W183" s="13"/>
-      <c r="Z183" s="13"/>
+      <c r="W183" s="3"/>
+      <c r="Z183" s="3"/>
     </row>
     <row r="184" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W184" s="13"/>
-      <c r="Z184" s="13"/>
+      <c r="W184" s="3"/>
+      <c r="Z184" s="3"/>
     </row>
     <row r="185" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W185" s="13"/>
-      <c r="Z185" s="13"/>
+      <c r="W185" s="3"/>
+      <c r="Z185" s="3"/>
     </row>
     <row r="186" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W186" s="13"/>
-      <c r="Z186" s="13"/>
+      <c r="W186" s="3"/>
+      <c r="Z186" s="3"/>
     </row>
     <row r="187" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W187" s="13"/>
-      <c r="Z187" s="13"/>
+      <c r="W187" s="3"/>
+      <c r="Z187" s="3"/>
     </row>
     <row r="188" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W188" s="13"/>
-      <c r="Z188" s="13"/>
+      <c r="W188" s="3"/>
+      <c r="Z188" s="3"/>
     </row>
     <row r="189" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W189" s="13"/>
-      <c r="Z189" s="13"/>
+      <c r="W189" s="3"/>
+      <c r="Z189" s="3"/>
     </row>
     <row r="190" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W190" s="13"/>
-      <c r="Z190" s="13"/>
+      <c r="W190" s="3"/>
+      <c r="Z190" s="3"/>
     </row>
     <row r="191" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W191" s="13"/>
-      <c r="Z191" s="13"/>
+      <c r="W191" s="3"/>
+      <c r="Z191" s="3"/>
     </row>
     <row r="192" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W192" s="13"/>
-      <c r="Z192" s="13"/>
+      <c r="W192" s="3"/>
+      <c r="Z192" s="3"/>
     </row>
     <row r="193" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W193" s="13"/>
-      <c r="Z193" s="13"/>
+      <c r="W193" s="3"/>
+      <c r="Z193" s="3"/>
     </row>
     <row r="194" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W194" s="13"/>
-      <c r="Z194" s="13"/>
+      <c r="W194" s="3"/>
+      <c r="Z194" s="3"/>
     </row>
     <row r="195" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W195" s="13"/>
-      <c r="Z195" s="13"/>
+      <c r="W195" s="3"/>
+      <c r="Z195" s="3"/>
     </row>
     <row r="196" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W196" s="13"/>
-      <c r="Z196" s="13"/>
+      <c r="W196" s="3"/>
+      <c r="Z196" s="3"/>
     </row>
     <row r="197" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W197" s="13"/>
-      <c r="Z197" s="13"/>
+      <c r="W197" s="3"/>
+      <c r="Z197" s="3"/>
     </row>
     <row r="198" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W198" s="13"/>
-      <c r="Z198" s="13"/>
+      <c r="W198" s="3"/>
+      <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W199" s="13"/>
-      <c r="Z199" s="13"/>
+      <c r="W199" s="3"/>
+      <c r="Z199" s="3"/>
     </row>
     <row r="200" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W200" s="13"/>
-      <c r="Z200" s="13"/>
+      <c r="W200" s="3"/>
+      <c r="Z200" s="3"/>
     </row>
     <row r="201" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W201" s="13"/>
-      <c r="Z201" s="13"/>
+      <c r="W201" s="3"/>
+      <c r="Z201" s="3"/>
     </row>
     <row r="202" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W202" s="13"/>
-      <c r="Z202" s="13"/>
+      <c r="W202" s="3"/>
+      <c r="Z202" s="3"/>
     </row>
     <row r="203" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W203" s="13"/>
-      <c r="Z203" s="13"/>
+      <c r="W203" s="3"/>
+      <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W204" s="13"/>
-      <c r="Z204" s="13"/>
+      <c r="W204" s="3"/>
+      <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W205" s="13"/>
-      <c r="Z205" s="13"/>
+      <c r="W205" s="3"/>
+      <c r="Z205" s="3"/>
     </row>
     <row r="206" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W206" s="13"/>
-      <c r="Z206" s="13"/>
+      <c r="W206" s="3"/>
+      <c r="Z206" s="3"/>
     </row>
     <row r="207" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W207" s="13"/>
-      <c r="Z207" s="13"/>
+      <c r="W207" s="3"/>
+      <c r="Z207" s="3"/>
     </row>
     <row r="208" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W208" s="13"/>
-      <c r="Z208" s="13"/>
+      <c r="W208" s="3"/>
+      <c r="Z208" s="3"/>
     </row>
     <row r="209" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W209" s="13"/>
-      <c r="Z209" s="13"/>
+      <c r="W209" s="3"/>
+      <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W210" s="13"/>
-      <c r="Z210" s="13"/>
+      <c r="W210" s="3"/>
+      <c r="Z210" s="3"/>
     </row>
     <row r="211" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W211" s="13"/>
-      <c r="Z211" s="13"/>
+      <c r="W211" s="3"/>
+      <c r="Z211" s="3"/>
     </row>
     <row r="212" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W212" s="13"/>
-      <c r="Z212" s="13"/>
+      <c r="W212" s="3"/>
+      <c r="Z212" s="3"/>
     </row>
     <row r="213" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W213" s="13"/>
-      <c r="Z213" s="13"/>
+      <c r="W213" s="3"/>
+      <c r="Z213" s="3"/>
     </row>
     <row r="214" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W214" s="13"/>
-      <c r="Z214" s="13"/>
+      <c r="W214" s="3"/>
+      <c r="Z214" s="3"/>
     </row>
     <row r="215" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W215" s="13"/>
-      <c r="Z215" s="13"/>
+      <c r="W215" s="3"/>
+      <c r="Z215" s="3"/>
     </row>
     <row r="216" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W216" s="13"/>
-      <c r="Z216" s="13"/>
+      <c r="W216" s="3"/>
+      <c r="Z216" s="3"/>
     </row>
     <row r="217" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W217" s="13"/>
-      <c r="Z217" s="13"/>
+      <c r="W217" s="3"/>
+      <c r="Z217" s="3"/>
     </row>
     <row r="218" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W218" s="13"/>
-      <c r="Z218" s="13"/>
+      <c r="W218" s="3"/>
+      <c r="Z218" s="3"/>
     </row>
     <row r="219" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W219" s="13"/>
-      <c r="Z219" s="13"/>
+      <c r="W219" s="3"/>
+      <c r="Z219" s="3"/>
     </row>
     <row r="220" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W220" s="13"/>
-      <c r="Z220" s="13"/>
+      <c r="W220" s="3"/>
+      <c r="Z220" s="3"/>
     </row>
     <row r="221" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W221" s="13"/>
-      <c r="Z221" s="13"/>
+      <c r="W221" s="3"/>
+      <c r="Z221" s="3"/>
     </row>
     <row r="222" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W222" s="13"/>
-      <c r="Z222" s="13"/>
+      <c r="W222" s="3"/>
+      <c r="Z222" s="3"/>
     </row>
     <row r="223" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W223" s="13"/>
-      <c r="Z223" s="13"/>
+      <c r="W223" s="3"/>
+      <c r="Z223" s="3"/>
     </row>
     <row r="224" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W224" s="13"/>
-      <c r="Z224" s="13"/>
+      <c r="W224" s="3"/>
+      <c r="Z224" s="3"/>
     </row>
     <row r="225" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W225" s="13"/>
-      <c r="Z225" s="13"/>
+      <c r="W225" s="3"/>
+      <c r="Z225" s="3"/>
     </row>
     <row r="226" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W226" s="13"/>
-      <c r="Z226" s="13"/>
+      <c r="W226" s="3"/>
+      <c r="Z226" s="3"/>
     </row>
     <row r="227" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W227" s="13"/>
-      <c r="Z227" s="13"/>
+      <c r="W227" s="3"/>
+      <c r="Z227" s="3"/>
     </row>
     <row r="228" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W228" s="13"/>
-      <c r="Z228" s="13"/>
+      <c r="W228" s="3"/>
+      <c r="Z228" s="3"/>
     </row>
     <row r="229" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W229" s="13"/>
-      <c r="Z229" s="13"/>
+      <c r="W229" s="3"/>
+      <c r="Z229" s="3"/>
     </row>
     <row r="230" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W230" s="13"/>
-      <c r="Z230" s="13"/>
+      <c r="W230" s="3"/>
+      <c r="Z230" s="3"/>
     </row>
     <row r="231" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W231" s="13"/>
-      <c r="Z231" s="13"/>
+      <c r="W231" s="3"/>
+      <c r="Z231" s="3"/>
     </row>
     <row r="232" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W232" s="13"/>
-      <c r="Z232" s="13"/>
+      <c r="W232" s="3"/>
+      <c r="Z232" s="3"/>
     </row>
     <row r="233" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W233" s="13"/>
-      <c r="Z233" s="13"/>
+      <c r="W233" s="3"/>
+      <c r="Z233" s="3"/>
     </row>
     <row r="234" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W234" s="13"/>
-      <c r="Z234" s="13"/>
+      <c r="W234" s="3"/>
+      <c r="Z234" s="3"/>
     </row>
     <row r="235" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W235" s="13"/>
-      <c r="Z235" s="13"/>
+      <c r="W235" s="3"/>
+      <c r="Z235" s="3"/>
     </row>
     <row r="236" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W236" s="13"/>
-      <c r="Z236" s="13"/>
+      <c r="W236" s="3"/>
+      <c r="Z236" s="3"/>
     </row>
     <row r="237" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W237" s="13"/>
-      <c r="Z237" s="13"/>
+      <c r="W237" s="3"/>
+      <c r="Z237" s="3"/>
     </row>
     <row r="238" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W238" s="13"/>
-      <c r="Z238" s="13"/>
+      <c r="W238" s="3"/>
+      <c r="Z238" s="3"/>
     </row>
     <row r="239" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W239" s="13"/>
-      <c r="Z239" s="13"/>
+      <c r="W239" s="3"/>
+      <c r="Z239" s="3"/>
     </row>
     <row r="240" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W240" s="13"/>
-      <c r="Z240" s="13"/>
+      <c r="W240" s="3"/>
+      <c r="Z240" s="3"/>
     </row>
     <row r="241" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W241" s="13"/>
-      <c r="Z241" s="13"/>
+      <c r="W241" s="3"/>
+      <c r="Z241" s="3"/>
     </row>
     <row r="242" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W242" s="13"/>
-      <c r="Z242" s="13"/>
+      <c r="W242" s="3"/>
+      <c r="Z242" s="3"/>
     </row>
     <row r="243" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W243" s="13"/>
-      <c r="Z243" s="13"/>
+      <c r="W243" s="3"/>
+      <c r="Z243" s="3"/>
     </row>
     <row r="244" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W244" s="13"/>
-      <c r="Z244" s="13"/>
+      <c r="W244" s="3"/>
+      <c r="Z244" s="3"/>
     </row>
     <row r="245" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W245" s="13"/>
-      <c r="Z245" s="13"/>
+      <c r="W245" s="3"/>
+      <c r="Z245" s="3"/>
     </row>
     <row r="246" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W246" s="13"/>
-      <c r="Z246" s="13"/>
+      <c r="W246" s="3"/>
+      <c r="Z246" s="3"/>
     </row>
     <row r="247" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W247" s="13"/>
-      <c r="Z247" s="13"/>
+      <c r="W247" s="3"/>
+      <c r="Z247" s="3"/>
     </row>
     <row r="248" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W248" s="13"/>
-      <c r="Z248" s="13"/>
+      <c r="W248" s="3"/>
+      <c r="Z248" s="3"/>
     </row>
     <row r="249" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W249" s="13"/>
-      <c r="Z249" s="13"/>
+      <c r="W249" s="3"/>
+      <c r="Z249" s="3"/>
     </row>
     <row r="250" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W250" s="13"/>
-      <c r="Z250" s="13"/>
+      <c r="W250" s="3"/>
+      <c r="Z250" s="3"/>
     </row>
     <row r="251" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W251" s="13"/>
-      <c r="Z251" s="13"/>
+      <c r="W251" s="3"/>
+      <c r="Z251" s="3"/>
     </row>
     <row r="252" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W252" s="13"/>
-      <c r="Z252" s="13"/>
+      <c r="W252" s="3"/>
+      <c r="Z252" s="3"/>
     </row>
     <row r="253" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W253" s="13"/>
-      <c r="Z253" s="13"/>
+      <c r="W253" s="3"/>
+      <c r="Z253" s="3"/>
     </row>
     <row r="254" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W254" s="13"/>
-      <c r="Z254" s="13"/>
+      <c r="W254" s="3"/>
+      <c r="Z254" s="3"/>
     </row>
     <row r="255" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W255" s="13"/>
-      <c r="Z255" s="13"/>
+      <c r="W255" s="3"/>
+      <c r="Z255" s="3"/>
     </row>
     <row r="256" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W256" s="13"/>
-      <c r="Z256" s="13"/>
+      <c r="W256" s="3"/>
+      <c r="Z256" s="3"/>
     </row>
     <row r="257" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W257" s="13"/>
-      <c r="Z257" s="13"/>
+      <c r="W257" s="3"/>
+      <c r="Z257" s="3"/>
     </row>
     <row r="258" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W258" s="13"/>
-      <c r="Z258" s="13"/>
+      <c r="W258" s="3"/>
+      <c r="Z258" s="3"/>
     </row>
     <row r="259" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W259" s="13"/>
-      <c r="Z259" s="13"/>
+      <c r="W259" s="3"/>
+      <c r="Z259" s="3"/>
     </row>
     <row r="260" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W260" s="13"/>
-      <c r="Z260" s="13"/>
+      <c r="W260" s="3"/>
+      <c r="Z260" s="3"/>
     </row>
     <row r="261" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W261" s="13"/>
-      <c r="Z261" s="13"/>
+      <c r="W261" s="3"/>
+      <c r="Z261" s="3"/>
     </row>
     <row r="262" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W262" s="13"/>
-      <c r="Z262" s="13"/>
+      <c r="W262" s="3"/>
+      <c r="Z262" s="3"/>
     </row>
     <row r="263" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W263" s="13"/>
-      <c r="Z263" s="13"/>
+      <c r="W263" s="3"/>
+      <c r="Z263" s="3"/>
     </row>
     <row r="264" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W264" s="13"/>
-      <c r="Z264" s="13"/>
+      <c r="W264" s="3"/>
+      <c r="Z264" s="3"/>
     </row>
     <row r="265" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W265" s="13"/>
-      <c r="Z265" s="13"/>
+      <c r="W265" s="3"/>
+      <c r="Z265" s="3"/>
     </row>
     <row r="266" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W266" s="13"/>
-      <c r="Z266" s="13"/>
+      <c r="W266" s="3"/>
+      <c r="Z266" s="3"/>
     </row>
     <row r="267" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W267" s="13"/>
-      <c r="Z267" s="13"/>
+      <c r="W267" s="3"/>
+      <c r="Z267" s="3"/>
     </row>
     <row r="268" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W268" s="13"/>
-      <c r="Z268" s="13"/>
+      <c r="W268" s="3"/>
+      <c r="Z268" s="3"/>
     </row>
     <row r="269" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W269" s="13"/>
-      <c r="Z269" s="13"/>
+      <c r="W269" s="3"/>
+      <c r="Z269" s="3"/>
     </row>
     <row r="270" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W270" s="13"/>
-      <c r="Z270" s="13"/>
+      <c r="W270" s="3"/>
+      <c r="Z270" s="3"/>
     </row>
     <row r="271" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W271" s="13"/>
-      <c r="Z271" s="13"/>
+      <c r="W271" s="3"/>
+      <c r="Z271" s="3"/>
     </row>
     <row r="272" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W272" s="13"/>
-      <c r="Z272" s="13"/>
+      <c r="W272" s="3"/>
+      <c r="Z272" s="3"/>
     </row>
     <row r="273" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W273" s="13"/>
-      <c r="Z273" s="13"/>
+      <c r="W273" s="3"/>
+      <c r="Z273" s="3"/>
     </row>
     <row r="274" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W274" s="13"/>
-      <c r="Z274" s="13"/>
+      <c r="W274" s="3"/>
+      <c r="Z274" s="3"/>
     </row>
     <row r="275" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W275" s="13"/>
-      <c r="Z275" s="13"/>
+      <c r="W275" s="3"/>
+      <c r="Z275" s="3"/>
     </row>
     <row r="276" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W276" s="13"/>
-      <c r="Z276" s="13"/>
+      <c r="W276" s="3"/>
+      <c r="Z276" s="3"/>
     </row>
     <row r="277" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W277" s="13"/>
-      <c r="Z277" s="13"/>
+      <c r="W277" s="3"/>
+      <c r="Z277" s="3"/>
     </row>
     <row r="278" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W278" s="13"/>
-      <c r="Z278" s="13"/>
+      <c r="W278" s="3"/>
+      <c r="Z278" s="3"/>
     </row>
     <row r="279" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W279" s="13"/>
-      <c r="Z279" s="13"/>
+      <c r="W279" s="3"/>
+      <c r="Z279" s="3"/>
     </row>
     <row r="280" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W280" s="13"/>
-      <c r="Z280" s="13"/>
+      <c r="W280" s="3"/>
+      <c r="Z280" s="3"/>
     </row>
     <row r="281" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W281" s="13"/>
-      <c r="Z281" s="13"/>
+      <c r="W281" s="3"/>
+      <c r="Z281" s="3"/>
     </row>
     <row r="282" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W282" s="13"/>
-      <c r="Z282" s="13"/>
+      <c r="W282" s="3"/>
+      <c r="Z282" s="3"/>
     </row>
     <row r="283" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W283" s="13"/>
-      <c r="Z283" s="13"/>
+      <c r="W283" s="3"/>
+      <c r="Z283" s="3"/>
     </row>
     <row r="284" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W284" s="13"/>
-      <c r="Z284" s="13"/>
+      <c r="W284" s="3"/>
+      <c r="Z284" s="3"/>
     </row>
     <row r="285" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W285" s="13"/>
-      <c r="Z285" s="13"/>
+      <c r="W285" s="3"/>
+      <c r="Z285" s="3"/>
     </row>
     <row r="286" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W286" s="13"/>
-      <c r="Z286" s="13"/>
+      <c r="W286" s="3"/>
+      <c r="Z286" s="3"/>
     </row>
     <row r="287" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W287" s="13"/>
-      <c r="Z287" s="13"/>
+      <c r="W287" s="3"/>
+      <c r="Z287" s="3"/>
     </row>
     <row r="288" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W288" s="13"/>
-      <c r="Z288" s="13"/>
+      <c r="W288" s="3"/>
+      <c r="Z288" s="3"/>
     </row>
     <row r="289" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W289" s="13"/>
-      <c r="Z289" s="13"/>
+      <c r="W289" s="3"/>
+      <c r="Z289" s="3"/>
     </row>
     <row r="290" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W290" s="13"/>
-      <c r="Z290" s="13"/>
+      <c r="W290" s="3"/>
+      <c r="Z290" s="3"/>
     </row>
     <row r="291" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W291" s="13"/>
-      <c r="Z291" s="13"/>
+      <c r="W291" s="3"/>
+      <c r="Z291" s="3"/>
     </row>
     <row r="292" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W292" s="13"/>
-      <c r="Z292" s="13"/>
+      <c r="W292" s="3"/>
+      <c r="Z292" s="3"/>
     </row>
     <row r="293" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W293" s="13"/>
-      <c r="Z293" s="13"/>
+      <c r="W293" s="3"/>
+      <c r="Z293" s="3"/>
     </row>
     <row r="294" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W294" s="13"/>
-      <c r="Z294" s="13"/>
+      <c r="W294" s="3"/>
+      <c r="Z294" s="3"/>
     </row>
     <row r="295" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W295" s="13"/>
-      <c r="Z295" s="13"/>
+      <c r="W295" s="3"/>
+      <c r="Z295" s="3"/>
     </row>
     <row r="296" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W296" s="13"/>
-      <c r="Z296" s="13"/>
+      <c r="W296" s="3"/>
+      <c r="Z296" s="3"/>
     </row>
     <row r="297" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W297" s="13"/>
-      <c r="Z297" s="13"/>
+      <c r="W297" s="3"/>
+      <c r="Z297" s="3"/>
     </row>
     <row r="298" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W298" s="13"/>
-      <c r="Z298" s="13"/>
+      <c r="W298" s="3"/>
+      <c r="Z298" s="3"/>
     </row>
     <row r="299" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W299" s="13"/>
-      <c r="Z299" s="13"/>
+      <c r="W299" s="3"/>
+      <c r="Z299" s="3"/>
     </row>
     <row r="300" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W300" s="13"/>
-      <c r="Z300" s="13"/>
+      <c r="W300" s="3"/>
+      <c r="Z300" s="3"/>
     </row>
     <row r="301" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W301" s="13"/>
-      <c r="Z301" s="13"/>
+      <c r="W301" s="3"/>
+      <c r="Z301" s="3"/>
     </row>
     <row r="302" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W302" s="13"/>
-      <c r="Z302" s="13"/>
+      <c r="W302" s="3"/>
+      <c r="Z302" s="3"/>
     </row>
     <row r="303" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W303" s="13"/>
-      <c r="Z303" s="13"/>
+      <c r="W303" s="3"/>
+      <c r="Z303" s="3"/>
     </row>
     <row r="304" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W304" s="13"/>
-      <c r="Z304" s="13"/>
+      <c r="W304" s="3"/>
+      <c r="Z304" s="3"/>
     </row>
     <row r="305" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W305" s="13"/>
-      <c r="Z305" s="13"/>
+      <c r="W305" s="3"/>
+      <c r="Z305" s="3"/>
     </row>
     <row r="306" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W306" s="13"/>
-      <c r="Z306" s="13"/>
+      <c r="W306" s="3"/>
+      <c r="Z306" s="3"/>
     </row>
     <row r="307" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W307" s="13"/>
-      <c r="Z307" s="13"/>
+      <c r="W307" s="3"/>
+      <c r="Z307" s="3"/>
     </row>
     <row r="308" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W308" s="13"/>
-      <c r="Z308" s="13"/>
+      <c r="W308" s="3"/>
+      <c r="Z308" s="3"/>
     </row>
     <row r="309" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W309" s="13"/>
-      <c r="Z309" s="13"/>
+      <c r="W309" s="3"/>
+      <c r="Z309" s="3"/>
     </row>
     <row r="310" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W310" s="13"/>
-      <c r="Z310" s="13"/>
+      <c r="W310" s="3"/>
+      <c r="Z310" s="3"/>
     </row>
     <row r="311" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W311" s="13"/>
-      <c r="Z311" s="13"/>
+      <c r="W311" s="3"/>
+      <c r="Z311" s="3"/>
     </row>
     <row r="312" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W312" s="13"/>
-      <c r="Z312" s="13"/>
+      <c r="W312" s="3"/>
+      <c r="Z312" s="3"/>
     </row>
     <row r="313" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W313" s="13"/>
-      <c r="Z313" s="13"/>
+      <c r="W313" s="3"/>
+      <c r="Z313" s="3"/>
     </row>
     <row r="314" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W314" s="13"/>
-      <c r="Z314" s="13"/>
+      <c r="W314" s="3"/>
+      <c r="Z314" s="3"/>
     </row>
     <row r="315" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W315" s="13"/>
-      <c r="Z315" s="13"/>
+      <c r="W315" s="3"/>
+      <c r="Z315" s="3"/>
     </row>
     <row r="316" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W316" s="13"/>
-      <c r="Z316" s="13"/>
+      <c r="W316" s="3"/>
+      <c r="Z316" s="3"/>
     </row>
     <row r="317" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W317" s="13"/>
-      <c r="Z317" s="13"/>
+      <c r="W317" s="3"/>
+      <c r="Z317" s="3"/>
     </row>
     <row r="318" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W318" s="13"/>
-      <c r="Z318" s="13"/>
+      <c r="W318" s="3"/>
+      <c r="Z318" s="3"/>
     </row>
     <row r="319" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W319" s="13"/>
-      <c r="Z319" s="13"/>
+      <c r="W319" s="3"/>
+      <c r="Z319" s="3"/>
     </row>
     <row r="320" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W320" s="13"/>
-      <c r="Z320" s="13"/>
+      <c r="W320" s="3"/>
+      <c r="Z320" s="3"/>
     </row>
     <row r="321" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W321" s="13"/>
-      <c r="Z321" s="13"/>
+      <c r="W321" s="3"/>
+      <c r="Z321" s="3"/>
     </row>
     <row r="322" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W322" s="13"/>
-      <c r="Z322" s="13"/>
+      <c r="W322" s="3"/>
+      <c r="Z322" s="3"/>
     </row>
     <row r="323" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W323" s="13"/>
-      <c r="Z323" s="13"/>
+      <c r="W323" s="3"/>
+      <c r="Z323" s="3"/>
     </row>
     <row r="324" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W324" s="13"/>
-      <c r="Z324" s="13"/>
+      <c r="W324" s="3"/>
+      <c r="Z324" s="3"/>
     </row>
     <row r="325" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W325" s="13"/>
-      <c r="Z325" s="13"/>
+      <c r="W325" s="3"/>
+      <c r="Z325" s="3"/>
     </row>
     <row r="326" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W326" s="13"/>
-      <c r="Z326" s="13"/>
+      <c r="W326" s="3"/>
+      <c r="Z326" s="3"/>
     </row>
     <row r="327" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W327" s="13"/>
-      <c r="Z327" s="13"/>
+      <c r="W327" s="3"/>
+      <c r="Z327" s="3"/>
     </row>
     <row r="328" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W328" s="13"/>
-      <c r="Z328" s="13"/>
+      <c r="W328" s="3"/>
+      <c r="Z328" s="3"/>
     </row>
     <row r="329" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W329" s="13"/>
-      <c r="Z329" s="13"/>
+      <c r="W329" s="3"/>
+      <c r="Z329" s="3"/>
     </row>
     <row r="330" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W330" s="13"/>
-      <c r="Z330" s="13"/>
+      <c r="W330" s="3"/>
+      <c r="Z330" s="3"/>
     </row>
     <row r="331" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W331" s="13"/>
-      <c r="Z331" s="13"/>
+      <c r="W331" s="3"/>
+      <c r="Z331" s="3"/>
     </row>
     <row r="332" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W332" s="13"/>
-      <c r="Z332" s="13"/>
+      <c r="W332" s="3"/>
+      <c r="Z332" s="3"/>
     </row>
     <row r="333" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W333" s="13"/>
-      <c r="Z333" s="13"/>
+      <c r="W333" s="3"/>
+      <c r="Z333" s="3"/>
     </row>
     <row r="334" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W334" s="13"/>
-      <c r="Z334" s="13"/>
+      <c r="W334" s="3"/>
+      <c r="Z334" s="3"/>
     </row>
     <row r="335" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W335" s="13"/>
-      <c r="Z335" s="13"/>
+      <c r="W335" s="3"/>
+      <c r="Z335" s="3"/>
     </row>
     <row r="336" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W336" s="13"/>
-      <c r="Z336" s="13"/>
+      <c r="W336" s="3"/>
+      <c r="Z336" s="3"/>
     </row>
     <row r="337" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W337" s="13"/>
-      <c r="Z337" s="13"/>
+      <c r="W337" s="3"/>
+      <c r="Z337" s="3"/>
     </row>
     <row r="338" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W338" s="13"/>
-      <c r="Z338" s="13"/>
+      <c r="W338" s="3"/>
+      <c r="Z338" s="3"/>
     </row>
     <row r="339" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W339" s="13"/>
-      <c r="Z339" s="13"/>
+      <c r="W339" s="3"/>
+      <c r="Z339" s="3"/>
     </row>
     <row r="340" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W340" s="13"/>
-      <c r="Z340" s="13"/>
+      <c r="W340" s="3"/>
+      <c r="Z340" s="3"/>
     </row>
     <row r="341" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W341" s="13"/>
-      <c r="Z341" s="13"/>
+      <c r="W341" s="3"/>
+      <c r="Z341" s="3"/>
     </row>
     <row r="342" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W342" s="13"/>
-      <c r="Z342" s="13"/>
+      <c r="W342" s="3"/>
+      <c r="Z342" s="3"/>
     </row>
     <row r="343" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W343" s="13"/>
-      <c r="Z343" s="13"/>
+      <c r="W343" s="3"/>
+      <c r="Z343" s="3"/>
     </row>
     <row r="344" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W344" s="13"/>
-      <c r="Z344" s="13"/>
+      <c r="W344" s="3"/>
+      <c r="Z344" s="3"/>
     </row>
     <row r="345" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W345" s="13"/>
-      <c r="Z345" s="13"/>
+      <c r="W345" s="3"/>
+      <c r="Z345" s="3"/>
     </row>
     <row r="346" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W346" s="13"/>
-      <c r="Z346" s="13"/>
+      <c r="W346" s="3"/>
+      <c r="Z346" s="3"/>
     </row>
     <row r="347" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W347" s="13"/>
-      <c r="Z347" s="13"/>
+      <c r="W347" s="3"/>
+      <c r="Z347" s="3"/>
     </row>
     <row r="348" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W348" s="13"/>
-      <c r="Z348" s="13"/>
+      <c r="W348" s="3"/>
+      <c r="Z348" s="3"/>
     </row>
     <row r="349" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W349" s="13"/>
-      <c r="Z349" s="13"/>
+      <c r="W349" s="3"/>
+      <c r="Z349" s="3"/>
     </row>
     <row r="350" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W350" s="13"/>
-      <c r="Z350" s="13"/>
+      <c r="W350" s="3"/>
+      <c r="Z350" s="3"/>
     </row>
     <row r="351" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W351" s="13"/>
-      <c r="Z351" s="13"/>
+      <c r="W351" s="3"/>
+      <c r="Z351" s="3"/>
     </row>
     <row r="352" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W352" s="13"/>
-      <c r="Z352" s="13"/>
+      <c r="W352" s="3"/>
+      <c r="Z352" s="3"/>
     </row>
     <row r="353" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W353" s="13"/>
-      <c r="Z353" s="13"/>
+      <c r="W353" s="3"/>
+      <c r="Z353" s="3"/>
     </row>
     <row r="354" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W354" s="13"/>
-      <c r="Z354" s="13"/>
+      <c r="W354" s="3"/>
+      <c r="Z354" s="3"/>
     </row>
     <row r="355" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W355" s="13"/>
-      <c r="Z355" s="13"/>
+      <c r="W355" s="3"/>
+      <c r="Z355" s="3"/>
     </row>
     <row r="356" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W356" s="13"/>
-      <c r="Z356" s="13"/>
+      <c r="W356" s="3"/>
+      <c r="Z356" s="3"/>
     </row>
     <row r="357" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W357" s="13"/>
-      <c r="Z357" s="13"/>
+      <c r="W357" s="3"/>
+      <c r="Z357" s="3"/>
     </row>
     <row r="358" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W358" s="13"/>
-      <c r="Z358" s="13"/>
+      <c r="W358" s="3"/>
+      <c r="Z358" s="3"/>
     </row>
     <row r="359" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W359" s="13"/>
-      <c r="Z359" s="13"/>
+      <c r="W359" s="3"/>
+      <c r="Z359" s="3"/>
     </row>
     <row r="360" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W360" s="13"/>
-      <c r="Z360" s="13"/>
+      <c r="W360" s="3"/>
+      <c r="Z360" s="3"/>
     </row>
     <row r="361" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W361" s="13"/>
-      <c r="Z361" s="13"/>
+      <c r="W361" s="3"/>
+      <c r="Z361" s="3"/>
     </row>
     <row r="362" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W362" s="13"/>
-      <c r="Z362" s="13"/>
+      <c r="W362" s="3"/>
+      <c r="Z362" s="3"/>
     </row>
     <row r="363" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W363" s="13"/>
-      <c r="Z363" s="13"/>
+      <c r="W363" s="3"/>
+      <c r="Z363" s="3"/>
     </row>
     <row r="364" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W364" s="13"/>
-      <c r="Z364" s="13"/>
+      <c r="W364" s="3"/>
+      <c r="Z364" s="3"/>
     </row>
     <row r="365" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W365" s="13"/>
-      <c r="Z365" s="13"/>
+      <c r="W365" s="3"/>
+      <c r="Z365" s="3"/>
     </row>
     <row r="366" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W366" s="13"/>
-      <c r="Z366" s="13"/>
+      <c r="W366" s="3"/>
+      <c r="Z366" s="3"/>
     </row>
     <row r="367" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W367" s="13"/>
-      <c r="Z367" s="13"/>
+      <c r="W367" s="3"/>
+      <c r="Z367" s="3"/>
     </row>
     <row r="368" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W368" s="13"/>
-      <c r="Z368" s="13"/>
+      <c r="W368" s="3"/>
+      <c r="Z368" s="3"/>
     </row>
     <row r="369" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W369" s="13"/>
-      <c r="Z369" s="13"/>
+      <c r="W369" s="3"/>
+      <c r="Z369" s="3"/>
     </row>
     <row r="370" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W370" s="13"/>
-      <c r="Z370" s="13"/>
+      <c r="W370" s="3"/>
+      <c r="Z370" s="3"/>
     </row>
     <row r="371" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W371" s="13"/>
-      <c r="Z371" s="13"/>
+      <c r="W371" s="3"/>
+      <c r="Z371" s="3"/>
     </row>
     <row r="372" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W372" s="13"/>
-      <c r="Z372" s="13"/>
+      <c r="W372" s="3"/>
+      <c r="Z372" s="3"/>
     </row>
     <row r="373" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W373" s="13"/>
-      <c r="Z373" s="13"/>
+      <c r="W373" s="3"/>
+      <c r="Z373" s="3"/>
     </row>
     <row r="374" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W374" s="13"/>
-      <c r="Z374" s="13"/>
+      <c r="W374" s="3"/>
+      <c r="Z374" s="3"/>
     </row>
     <row r="375" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W375" s="13"/>
-      <c r="Z375" s="13"/>
+      <c r="W375" s="3"/>
+      <c r="Z375" s="3"/>
     </row>
     <row r="376" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W376" s="13"/>
-      <c r="Z376" s="13"/>
+      <c r="W376" s="3"/>
+      <c r="Z376" s="3"/>
     </row>
     <row r="377" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W377" s="13"/>
-      <c r="Z377" s="13"/>
+      <c r="W377" s="3"/>
+      <c r="Z377" s="3"/>
     </row>
     <row r="378" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W378" s="13"/>
-      <c r="Z378" s="13"/>
+      <c r="W378" s="3"/>
+      <c r="Z378" s="3"/>
     </row>
     <row r="379" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W379" s="13"/>
-      <c r="Z379" s="13"/>
+      <c r="W379" s="3"/>
+      <c r="Z379" s="3"/>
     </row>
     <row r="380" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W380" s="13"/>
-      <c r="Z380" s="13"/>
+      <c r="W380" s="3"/>
+      <c r="Z380" s="3"/>
     </row>
     <row r="381" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W381" s="13"/>
-      <c r="Z381" s="13"/>
+      <c r="W381" s="3"/>
+      <c r="Z381" s="3"/>
     </row>
     <row r="382" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W382" s="13"/>
-      <c r="Z382" s="13"/>
+      <c r="W382" s="3"/>
+      <c r="Z382" s="3"/>
     </row>
     <row r="383" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W383" s="13"/>
-      <c r="Z383" s="13"/>
+      <c r="W383" s="3"/>
+      <c r="Z383" s="3"/>
     </row>
     <row r="384" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W384" s="13"/>
-      <c r="Z384" s="13"/>
+      <c r="W384" s="3"/>
+      <c r="Z384" s="3"/>
     </row>
     <row r="385" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W385" s="13"/>
-      <c r="Z385" s="13"/>
+      <c r="W385" s="3"/>
+      <c r="Z385" s="3"/>
     </row>
     <row r="386" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W386" s="13"/>
-      <c r="Z386" s="13"/>
+      <c r="W386" s="3"/>
+      <c r="Z386" s="3"/>
     </row>
     <row r="387" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W387" s="13"/>
-      <c r="Z387" s="13"/>
+      <c r="W387" s="3"/>
+      <c r="Z387" s="3"/>
     </row>
     <row r="388" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W388" s="13"/>
-      <c r="Z388" s="13"/>
+      <c r="W388" s="3"/>
+      <c r="Z388" s="3"/>
     </row>
     <row r="389" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W389" s="13"/>
-      <c r="Z389" s="13"/>
+      <c r="W389" s="3"/>
+      <c r="Z389" s="3"/>
     </row>
     <row r="390" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W390" s="13"/>
-      <c r="Z390" s="13"/>
+      <c r="W390" s="3"/>
+      <c r="Z390" s="3"/>
     </row>
     <row r="391" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W391" s="13"/>
-      <c r="Z391" s="13"/>
+      <c r="W391" s="3"/>
+      <c r="Z391" s="3"/>
     </row>
     <row r="392" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W392" s="13"/>
-      <c r="Z392" s="13"/>
+      <c r="W392" s="3"/>
+      <c r="Z392" s="3"/>
     </row>
     <row r="393" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W393" s="13"/>
-      <c r="Z393" s="13"/>
+      <c r="W393" s="3"/>
+      <c r="Z393" s="3"/>
     </row>
     <row r="394" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W394" s="13"/>
-      <c r="Z394" s="13"/>
+      <c r="W394" s="3"/>
+      <c r="Z394" s="3"/>
     </row>
     <row r="395" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W395" s="13"/>
-      <c r="Z395" s="13"/>
+      <c r="W395" s="3"/>
+      <c r="Z395" s="3"/>
     </row>
     <row r="396" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W396" s="13"/>
-      <c r="Z396" s="13"/>
+      <c r="W396" s="3"/>
+      <c r="Z396" s="3"/>
     </row>
     <row r="397" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W397" s="13"/>
-      <c r="Z397" s="13"/>
+      <c r="W397" s="3"/>
+      <c r="Z397" s="3"/>
     </row>
     <row r="398" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W398" s="13"/>
-      <c r="Z398" s="13"/>
+      <c r="W398" s="3"/>
+      <c r="Z398" s="3"/>
     </row>
     <row r="399" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W399" s="13"/>
-      <c r="Z399" s="13"/>
+      <c r="W399" s="3"/>
+      <c r="Z399" s="3"/>
     </row>
     <row r="400" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W400" s="13"/>
-      <c r="Z400" s="13"/>
+      <c r="W400" s="3"/>
+      <c r="Z400" s="3"/>
     </row>
     <row r="401" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W401" s="13"/>
-      <c r="Z401" s="13"/>
+      <c r="W401" s="3"/>
+      <c r="Z401" s="3"/>
     </row>
     <row r="402" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W402" s="13"/>
-      <c r="Z402" s="13"/>
+      <c r="W402" s="3"/>
+      <c r="Z402" s="3"/>
     </row>
     <row r="403" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W403" s="13"/>
-      <c r="Z403" s="13"/>
+      <c r="W403" s="3"/>
+      <c r="Z403" s="3"/>
     </row>
     <row r="404" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W404" s="13"/>
-      <c r="Z404" s="13"/>
+      <c r="W404" s="3"/>
+      <c r="Z404" s="3"/>
     </row>
     <row r="405" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W405" s="13"/>
-      <c r="Z405" s="13"/>
+      <c r="W405" s="3"/>
+      <c r="Z405" s="3"/>
     </row>
     <row r="406" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W406" s="13"/>
-      <c r="Z406" s="13"/>
+      <c r="W406" s="3"/>
+      <c r="Z406" s="3"/>
     </row>
     <row r="407" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W407" s="13"/>
-      <c r="Z407" s="13"/>
+      <c r="W407" s="3"/>
+      <c r="Z407" s="3"/>
     </row>
     <row r="408" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W408" s="13"/>
-      <c r="Z408" s="13"/>
+      <c r="W408" s="3"/>
+      <c r="Z408" s="3"/>
     </row>
     <row r="409" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W409" s="13"/>
-      <c r="Z409" s="13"/>
+      <c r="W409" s="3"/>
+      <c r="Z409" s="3"/>
     </row>
     <row r="410" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W410" s="13"/>
-      <c r="Z410" s="13"/>
+      <c r="W410" s="3"/>
+      <c r="Z410" s="3"/>
     </row>
     <row r="411" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W411" s="13"/>
-      <c r="Z411" s="13"/>
+      <c r="W411" s="3"/>
+      <c r="Z411" s="3"/>
     </row>
     <row r="412" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W412" s="13"/>
-      <c r="Z412" s="13"/>
+      <c r="W412" s="3"/>
+      <c r="Z412" s="3"/>
     </row>
     <row r="413" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W413" s="13"/>
-      <c r="Z413" s="13"/>
+      <c r="W413" s="3"/>
+      <c r="Z413" s="3"/>
     </row>
     <row r="414" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W414" s="13"/>
-      <c r="Z414" s="13"/>
+      <c r="W414" s="3"/>
+      <c r="Z414" s="3"/>
     </row>
     <row r="415" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W415" s="13"/>
-      <c r="Z415" s="13"/>
+      <c r="W415" s="3"/>
+      <c r="Z415" s="3"/>
     </row>
     <row r="416" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W416" s="13"/>
-      <c r="Z416" s="13"/>
+      <c r="W416" s="3"/>
+      <c r="Z416" s="3"/>
     </row>
     <row r="417" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W417" s="13"/>
-      <c r="Z417" s="13"/>
+      <c r="W417" s="3"/>
+      <c r="Z417" s="3"/>
     </row>
     <row r="418" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W418" s="13"/>
-      <c r="Z418" s="13"/>
+      <c r="W418" s="3"/>
+      <c r="Z418" s="3"/>
     </row>
     <row r="419" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W419" s="13"/>
-      <c r="Z419" s="13"/>
+      <c r="W419" s="3"/>
+      <c r="Z419" s="3"/>
     </row>
     <row r="420" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W420" s="13"/>
-      <c r="Z420" s="13"/>
+      <c r="W420" s="3"/>
+      <c r="Z420" s="3"/>
     </row>
     <row r="421" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W421" s="13"/>
-      <c r="Z421" s="13"/>
+      <c r="W421" s="3"/>
+      <c r="Z421" s="3"/>
     </row>
     <row r="422" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W422" s="13"/>
-      <c r="Z422" s="13"/>
+      <c r="W422" s="3"/>
+      <c r="Z422" s="3"/>
     </row>
     <row r="423" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W423" s="13"/>
-      <c r="Z423" s="13"/>
+      <c r="W423" s="3"/>
+      <c r="Z423" s="3"/>
     </row>
     <row r="424" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W424" s="13"/>
-      <c r="Z424" s="13"/>
+      <c r="W424" s="3"/>
+      <c r="Z424" s="3"/>
     </row>
     <row r="425" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W425" s="13"/>
-      <c r="Z425" s="13"/>
+      <c r="W425" s="3"/>
+      <c r="Z425" s="3"/>
     </row>
     <row r="426" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W426" s="13"/>
-      <c r="Z426" s="13"/>
+      <c r="W426" s="3"/>
+      <c r="Z426" s="3"/>
     </row>
     <row r="427" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W427" s="13"/>
-      <c r="Z427" s="13"/>
+      <c r="W427" s="3"/>
+      <c r="Z427" s="3"/>
     </row>
     <row r="428" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W428" s="13"/>
-      <c r="Z428" s="13"/>
+      <c r="W428" s="3"/>
+      <c r="Z428" s="3"/>
     </row>
     <row r="429" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W429" s="13"/>
-      <c r="Z429" s="13"/>
+      <c r="W429" s="3"/>
+      <c r="Z429" s="3"/>
     </row>
     <row r="430" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W430" s="13"/>
-      <c r="Z430" s="13"/>
+      <c r="W430" s="3"/>
+      <c r="Z430" s="3"/>
     </row>
     <row r="431" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W431" s="13"/>
-      <c r="Z431" s="13"/>
+      <c r="W431" s="3"/>
+      <c r="Z431" s="3"/>
     </row>
     <row r="432" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W432" s="13"/>
-      <c r="Z432" s="13"/>
+      <c r="W432" s="3"/>
+      <c r="Z432" s="3"/>
     </row>
     <row r="433" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W433" s="13"/>
-      <c r="Z433" s="13"/>
+      <c r="W433" s="3"/>
+      <c r="Z433" s="3"/>
     </row>
     <row r="434" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W434" s="13"/>
-      <c r="Z434" s="13"/>
+      <c r="W434" s="3"/>
+      <c r="Z434" s="3"/>
     </row>
     <row r="435" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W435" s="13"/>
-      <c r="Z435" s="13"/>
+      <c r="W435" s="3"/>
+      <c r="Z435" s="3"/>
     </row>
     <row r="436" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W436" s="13"/>
-      <c r="Z436" s="13"/>
+      <c r="W436" s="3"/>
+      <c r="Z436" s="3"/>
     </row>
     <row r="437" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W437" s="13"/>
-      <c r="Z437" s="13"/>
+      <c r="W437" s="3"/>
+      <c r="Z437" s="3"/>
     </row>
     <row r="438" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W438" s="13"/>
-      <c r="Z438" s="13"/>
+      <c r="W438" s="3"/>
+      <c r="Z438" s="3"/>
     </row>
     <row r="439" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W439" s="13"/>
-      <c r="Z439" s="13"/>
+      <c r="W439" s="3"/>
+      <c r="Z439" s="3"/>
     </row>
     <row r="440" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W440" s="13"/>
-      <c r="Z440" s="13"/>
+      <c r="W440" s="3"/>
+      <c r="Z440" s="3"/>
     </row>
     <row r="441" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W441" s="13"/>
-      <c r="Z441" s="13"/>
+      <c r="W441" s="3"/>
+      <c r="Z441" s="3"/>
     </row>
     <row r="442" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W442" s="13"/>
-      <c r="Z442" s="13"/>
+      <c r="W442" s="3"/>
+      <c r="Z442" s="3"/>
     </row>
     <row r="443" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W443" s="13"/>
-      <c r="Z443" s="13"/>
+      <c r="W443" s="3"/>
+      <c r="Z443" s="3"/>
     </row>
     <row r="444" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W444" s="13"/>
-      <c r="Z444" s="13"/>
+      <c r="W444" s="3"/>
+      <c r="Z444" s="3"/>
     </row>
     <row r="445" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W445" s="13"/>
-      <c r="Z445" s="13"/>
+      <c r="W445" s="3"/>
+      <c r="Z445" s="3"/>
     </row>
     <row r="446" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W446" s="13"/>
-      <c r="Z446" s="13"/>
+      <c r="W446" s="3"/>
+      <c r="Z446" s="3"/>
     </row>
     <row r="447" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W447" s="13"/>
-      <c r="Z447" s="13"/>
+      <c r="W447" s="3"/>
+      <c r="Z447" s="3"/>
     </row>
     <row r="448" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W448" s="13"/>
-      <c r="Z448" s="13"/>
+      <c r="W448" s="3"/>
+      <c r="Z448" s="3"/>
     </row>
     <row r="449" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W449" s="13"/>
-      <c r="Z449" s="13"/>
+      <c r="W449" s="3"/>
+      <c r="Z449" s="3"/>
     </row>
     <row r="450" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W450" s="13"/>
-      <c r="Z450" s="13"/>
+      <c r="W450" s="3"/>
+      <c r="Z450" s="3"/>
     </row>
     <row r="451" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W451" s="13"/>
-      <c r="Z451" s="13"/>
+      <c r="W451" s="3"/>
+      <c r="Z451" s="3"/>
     </row>
     <row r="452" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W452" s="13"/>
-      <c r="Z452" s="13"/>
+      <c r="W452" s="3"/>
+      <c r="Z452" s="3"/>
     </row>
     <row r="453" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W453" s="13"/>
-      <c r="Z453" s="13"/>
+      <c r="W453" s="3"/>
+      <c r="Z453" s="3"/>
     </row>
     <row r="454" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W454" s="13"/>
-      <c r="Z454" s="13"/>
+      <c r="W454" s="3"/>
+      <c r="Z454" s="3"/>
     </row>
     <row r="455" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W455" s="13"/>
-      <c r="Z455" s="13"/>
+      <c r="W455" s="3"/>
+      <c r="Z455" s="3"/>
     </row>
     <row r="456" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W456" s="13"/>
-      <c r="Z456" s="13"/>
+      <c r="W456" s="3"/>
+      <c r="Z456" s="3"/>
     </row>
     <row r="457" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W457" s="13"/>
-      <c r="Z457" s="13"/>
+      <c r="W457" s="3"/>
+      <c r="Z457" s="3"/>
     </row>
     <row r="458" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W458" s="13"/>
-      <c r="Z458" s="13"/>
+      <c r="W458" s="3"/>
+      <c r="Z458" s="3"/>
     </row>
     <row r="459" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W459" s="13"/>
-      <c r="Z459" s="13"/>
+      <c r="W459" s="3"/>
+      <c r="Z459" s="3"/>
     </row>
     <row r="460" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W460" s="13"/>
-      <c r="Z460" s="13"/>
+      <c r="W460" s="3"/>
+      <c r="Z460" s="3"/>
     </row>
     <row r="461" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W461" s="13"/>
-      <c r="Z461" s="13"/>
+      <c r="W461" s="3"/>
+      <c r="Z461" s="3"/>
     </row>
     <row r="462" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W462" s="13"/>
-      <c r="Z462" s="13"/>
+      <c r="W462" s="3"/>
+      <c r="Z462" s="3"/>
     </row>
     <row r="463" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W463" s="13"/>
-      <c r="Z463" s="13"/>
+      <c r="W463" s="3"/>
+      <c r="Z463" s="3"/>
     </row>
     <row r="464" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W464" s="13"/>
-      <c r="Z464" s="13"/>
+      <c r="W464" s="3"/>
+      <c r="Z464" s="3"/>
     </row>
     <row r="465" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W465" s="13"/>
-      <c r="Z465" s="13"/>
+      <c r="W465" s="3"/>
+      <c r="Z465" s="3"/>
     </row>
     <row r="466" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W466" s="13"/>
-      <c r="Z466" s="13"/>
+      <c r="W466" s="3"/>
+      <c r="Z466" s="3"/>
     </row>
     <row r="467" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W467" s="13"/>
-      <c r="Z467" s="13"/>
+      <c r="W467" s="3"/>
+      <c r="Z467" s="3"/>
     </row>
     <row r="468" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W468" s="13"/>
-      <c r="Z468" s="13"/>
+      <c r="W468" s="3"/>
+      <c r="Z468" s="3"/>
     </row>
     <row r="469" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W469" s="13"/>
-      <c r="Z469" s="13"/>
+      <c r="W469" s="3"/>
+      <c r="Z469" s="3"/>
     </row>
     <row r="470" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W470" s="13"/>
-      <c r="Z470" s="13"/>
+      <c r="W470" s="3"/>
+      <c r="Z470" s="3"/>
     </row>
     <row r="471" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W471" s="13"/>
-      <c r="Z471" s="13"/>
+      <c r="W471" s="3"/>
+      <c r="Z471" s="3"/>
     </row>
     <row r="472" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W472" s="13"/>
-      <c r="Z472" s="13"/>
+      <c r="W472" s="3"/>
+      <c r="Z472" s="3"/>
     </row>
     <row r="473" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W473" s="13"/>
-      <c r="Z473" s="13"/>
+      <c r="W473" s="3"/>
+      <c r="Z473" s="3"/>
     </row>
     <row r="474" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W474" s="13"/>
-      <c r="Z474" s="13"/>
+      <c r="W474" s="3"/>
+      <c r="Z474" s="3"/>
     </row>
     <row r="475" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W475" s="13"/>
-      <c r="Z475" s="13"/>
+      <c r="W475" s="3"/>
+      <c r="Z475" s="3"/>
     </row>
     <row r="476" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W476" s="13"/>
-      <c r="Z476" s="13"/>
+      <c r="W476" s="3"/>
+      <c r="Z476" s="3"/>
     </row>
     <row r="477" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W477" s="13"/>
-      <c r="Z477" s="13"/>
+      <c r="W477" s="3"/>
+      <c r="Z477" s="3"/>
     </row>
     <row r="478" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W478" s="13"/>
-      <c r="Z478" s="13"/>
+      <c r="W478" s="3"/>
+      <c r="Z478" s="3"/>
     </row>
     <row r="479" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W479" s="13"/>
-      <c r="Z479" s="13"/>
+      <c r="W479" s="3"/>
+      <c r="Z479" s="3"/>
     </row>
     <row r="480" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W480" s="13"/>
-      <c r="Z480" s="13"/>
+      <c r="W480" s="3"/>
+      <c r="Z480" s="3"/>
     </row>
     <row r="481" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W481" s="13"/>
-      <c r="Z481" s="13"/>
+      <c r="W481" s="3"/>
+      <c r="Z481" s="3"/>
     </row>
     <row r="482" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W482" s="13"/>
-      <c r="Z482" s="13"/>
+      <c r="W482" s="3"/>
+      <c r="Z482" s="3"/>
     </row>
     <row r="483" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W483" s="13"/>
-      <c r="Z483" s="13"/>
+      <c r="W483" s="3"/>
+      <c r="Z483" s="3"/>
     </row>
     <row r="484" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W484" s="13"/>
-      <c r="Z484" s="13"/>
+      <c r="W484" s="3"/>
+      <c r="Z484" s="3"/>
     </row>
     <row r="485" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W485" s="13"/>
-      <c r="Z485" s="13"/>
+      <c r="W485" s="3"/>
+      <c r="Z485" s="3"/>
     </row>
     <row r="486" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W486" s="13"/>
-      <c r="Z486" s="13"/>
+      <c r="W486" s="3"/>
+      <c r="Z486" s="3"/>
     </row>
     <row r="487" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W487" s="13"/>
-      <c r="Z487" s="13"/>
+      <c r="W487" s="3"/>
+      <c r="Z487" s="3"/>
     </row>
     <row r="488" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W488" s="13"/>
-      <c r="Z488" s="13"/>
+      <c r="W488" s="3"/>
+      <c r="Z488" s="3"/>
     </row>
     <row r="489" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W489" s="13"/>
-      <c r="Z489" s="13"/>
+      <c r="W489" s="3"/>
+      <c r="Z489" s="3"/>
     </row>
     <row r="490" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W490" s="13"/>
-      <c r="Z490" s="13"/>
+      <c r="W490" s="3"/>
+      <c r="Z490" s="3"/>
     </row>
     <row r="491" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W491" s="13"/>
-      <c r="Z491" s="13"/>
+      <c r="W491" s="3"/>
+      <c r="Z491" s="3"/>
     </row>
     <row r="492" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W492" s="13"/>
-      <c r="Z492" s="13"/>
+      <c r="W492" s="3"/>
+      <c r="Z492" s="3"/>
     </row>
     <row r="493" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W493" s="13"/>
-      <c r="Z493" s="13"/>
+      <c r="W493" s="3"/>
+      <c r="Z493" s="3"/>
     </row>
     <row r="494" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W494" s="13"/>
-      <c r="Z494" s="13"/>
+      <c r="W494" s="3"/>
+      <c r="Z494" s="3"/>
     </row>
     <row r="495" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W495" s="13"/>
-      <c r="Z495" s="13"/>
+      <c r="W495" s="3"/>
+      <c r="Z495" s="3"/>
     </row>
     <row r="496" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W496" s="13"/>
-      <c r="Z496" s="13"/>
+      <c r="W496" s="3"/>
+      <c r="Z496" s="3"/>
     </row>
     <row r="497" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W497" s="13"/>
-      <c r="Z497" s="13"/>
+      <c r="W497" s="3"/>
+      <c r="Z497" s="3"/>
     </row>
     <row r="498" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W498" s="13"/>
-      <c r="Z498" s="13"/>
+      <c r="W498" s="3"/>
+      <c r="Z498" s="3"/>
     </row>
     <row r="499" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W499" s="13"/>
-      <c r="Z499" s="13"/>
+      <c r="W499" s="3"/>
+      <c r="Z499" s="3"/>
     </row>
     <row r="500" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W500" s="13"/>
-      <c r="Z500" s="13"/>
+      <c r="W500" s="3"/>
+      <c r="Z500" s="3"/>
     </row>
     <row r="501" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W501" s="13"/>
-      <c r="Z501" s="13"/>
+      <c r="W501" s="3"/>
+      <c r="Z501" s="3"/>
     </row>
     <row r="502" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W502" s="13"/>
-      <c r="Z502" s="13"/>
+      <c r="W502" s="3"/>
+      <c r="Z502" s="3"/>
     </row>
     <row r="503" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W503" s="13"/>
-      <c r="Z503" s="13"/>
+      <c r="W503" s="3"/>
+      <c r="Z503" s="3"/>
     </row>
     <row r="504" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W504" s="13"/>
-      <c r="Z504" s="13"/>
+      <c r="W504" s="3"/>
+      <c r="Z504" s="3"/>
     </row>
     <row r="505" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W505" s="13"/>
-      <c r="Z505" s="13"/>
+      <c r="W505" s="3"/>
+      <c r="Z505" s="3"/>
     </row>
     <row r="506" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W506" s="13"/>
-      <c r="Z506" s="13"/>
+      <c r="W506" s="3"/>
+      <c r="Z506" s="3"/>
     </row>
     <row r="507" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W507" s="13"/>
-      <c r="Z507" s="13"/>
+      <c r="W507" s="3"/>
+      <c r="Z507" s="3"/>
     </row>
     <row r="508" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W508" s="13"/>
-      <c r="Z508" s="13"/>
+      <c r="W508" s="3"/>
+      <c r="Z508" s="3"/>
     </row>
     <row r="509" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W509" s="13"/>
-      <c r="Z509" s="13"/>
+      <c r="W509" s="3"/>
+      <c r="Z509" s="3"/>
     </row>
     <row r="510" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W510" s="13"/>
-      <c r="Z510" s="13"/>
+      <c r="W510" s="3"/>
+      <c r="Z510" s="3"/>
     </row>
     <row r="511" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W511" s="13"/>
-      <c r="Z511" s="13"/>
+      <c r="W511" s="3"/>
+      <c r="Z511" s="3"/>
     </row>
     <row r="512" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W512" s="13"/>
-      <c r="Z512" s="13"/>
+      <c r="W512" s="3"/>
+      <c r="Z512" s="3"/>
     </row>
     <row r="513" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W513" s="13"/>
-      <c r="Z513" s="13"/>
+      <c r="W513" s="3"/>
+      <c r="Z513" s="3"/>
     </row>
     <row r="514" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W514" s="13"/>
-      <c r="Z514" s="13"/>
+      <c r="W514" s="3"/>
+      <c r="Z514" s="3"/>
     </row>
     <row r="515" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W515" s="13"/>
-      <c r="Z515" s="13"/>
+      <c r="W515" s="3"/>
+      <c r="Z515" s="3"/>
     </row>
     <row r="516" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W516" s="13"/>
-      <c r="Z516" s="13"/>
+      <c r="W516" s="3"/>
+      <c r="Z516" s="3"/>
     </row>
     <row r="517" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W517" s="13"/>
-      <c r="Z517" s="13"/>
+      <c r="W517" s="3"/>
+      <c r="Z517" s="3"/>
     </row>
     <row r="518" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W518" s="13"/>
-      <c r="Z518" s="13"/>
+      <c r="W518" s="3"/>
+      <c r="Z518" s="3"/>
     </row>
     <row r="519" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W519" s="13"/>
-      <c r="Z519" s="13"/>
+      <c r="W519" s="3"/>
+      <c r="Z519" s="3"/>
     </row>
     <row r="520" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W520" s="13"/>
-      <c r="Z520" s="13"/>
+      <c r="W520" s="3"/>
+      <c r="Z520" s="3"/>
     </row>
     <row r="521" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W521" s="13"/>
-      <c r="Z521" s="13"/>
+      <c r="W521" s="3"/>
+      <c r="Z521" s="3"/>
     </row>
     <row r="522" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W522" s="13"/>
-      <c r="Z522" s="13"/>
+      <c r="W522" s="3"/>
+      <c r="Z522" s="3"/>
     </row>
     <row r="523" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W523" s="13"/>
-      <c r="Z523" s="13"/>
+      <c r="W523" s="3"/>
+      <c r="Z523" s="3"/>
     </row>
     <row r="524" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W524" s="13"/>
-      <c r="Z524" s="13"/>
+      <c r="W524" s="3"/>
+      <c r="Z524" s="3"/>
     </row>
     <row r="525" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W525" s="13"/>
-      <c r="Z525" s="13"/>
+      <c r="W525" s="3"/>
+      <c r="Z525" s="3"/>
     </row>
     <row r="526" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W526" s="13"/>
-      <c r="Z526" s="13"/>
+      <c r="W526" s="3"/>
+      <c r="Z526" s="3"/>
     </row>
     <row r="527" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W527" s="13"/>
-      <c r="Z527" s="13"/>
+      <c r="W527" s="3"/>
+      <c r="Z527" s="3"/>
     </row>
     <row r="528" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W528" s="13"/>
-      <c r="Z528" s="13"/>
+      <c r="W528" s="3"/>
+      <c r="Z528" s="3"/>
     </row>
     <row r="529" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W529" s="13"/>
-      <c r="Z529" s="13"/>
+      <c r="W529" s="3"/>
+      <c r="Z529" s="3"/>
     </row>
     <row r="530" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W530" s="13"/>
-      <c r="Z530" s="13"/>
+      <c r="W530" s="3"/>
+      <c r="Z530" s="3"/>
     </row>
     <row r="531" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W531" s="13"/>
-      <c r="Z531" s="13"/>
+      <c r="W531" s="3"/>
+      <c r="Z531" s="3"/>
     </row>
     <row r="532" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W532" s="13"/>
-      <c r="Z532" s="13"/>
+      <c r="W532" s="3"/>
+      <c r="Z532" s="3"/>
     </row>
     <row r="533" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W533" s="13"/>
-      <c r="Z533" s="13"/>
+      <c r="W533" s="3"/>
+      <c r="Z533" s="3"/>
     </row>
     <row r="534" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W534" s="13"/>
-      <c r="Z534" s="13"/>
+      <c r="W534" s="3"/>
+      <c r="Z534" s="3"/>
     </row>
     <row r="535" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W535" s="13"/>
-      <c r="Z535" s="13"/>
+      <c r="W535" s="3"/>
+      <c r="Z535" s="3"/>
     </row>
     <row r="536" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W536" s="13"/>
-      <c r="Z536" s="13"/>
+      <c r="W536" s="3"/>
+      <c r="Z536" s="3"/>
     </row>
     <row r="537" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W537" s="13"/>
-      <c r="Z537" s="13"/>
+      <c r="W537" s="3"/>
+      <c r="Z537" s="3"/>
     </row>
     <row r="538" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W538" s="13"/>
-      <c r="Z538" s="13"/>
+      <c r="W538" s="3"/>
+      <c r="Z538" s="3"/>
     </row>
     <row r="539" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W539" s="13"/>
-      <c r="Z539" s="13"/>
+      <c r="W539" s="3"/>
+      <c r="Z539" s="3"/>
     </row>
     <row r="540" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W540" s="13"/>
-      <c r="Z540" s="13"/>
+      <c r="W540" s="3"/>
+      <c r="Z540" s="3"/>
     </row>
     <row r="541" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W541" s="13"/>
-      <c r="Z541" s="13"/>
+      <c r="W541" s="3"/>
+      <c r="Z541" s="3"/>
     </row>
     <row r="542" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W542" s="13"/>
-      <c r="Z542" s="13"/>
+      <c r="W542" s="3"/>
+      <c r="Z542" s="3"/>
     </row>
     <row r="543" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W543" s="13"/>
-      <c r="Z543" s="13"/>
+      <c r="W543" s="3"/>
+      <c r="Z543" s="3"/>
     </row>
     <row r="544" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W544" s="13"/>
-      <c r="Z544" s="13"/>
+      <c r="W544" s="3"/>
+      <c r="Z544" s="3"/>
     </row>
     <row r="545" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W545" s="13"/>
-      <c r="Z545" s="13"/>
+      <c r="W545" s="3"/>
+      <c r="Z545" s="3"/>
     </row>
     <row r="546" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W546" s="13"/>
-      <c r="Z546" s="13"/>
+      <c r="W546" s="3"/>
+      <c r="Z546" s="3"/>
     </row>
     <row r="547" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W547" s="13"/>
-      <c r="Z547" s="13"/>
+      <c r="W547" s="3"/>
+      <c r="Z547" s="3"/>
     </row>
     <row r="548" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W548" s="13"/>
-      <c r="Z548" s="13"/>
+      <c r="W548" s="3"/>
+      <c r="Z548" s="3"/>
     </row>
     <row r="549" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W549" s="13"/>
-      <c r="Z549" s="13"/>
+      <c r="W549" s="3"/>
+      <c r="Z549" s="3"/>
     </row>
     <row r="550" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W550" s="13"/>
-      <c r="Z550" s="13"/>
+      <c r="W550" s="3"/>
+      <c r="Z550" s="3"/>
     </row>
     <row r="551" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W551" s="13"/>
-      <c r="Z551" s="13"/>
+      <c r="W551" s="3"/>
+      <c r="Z551" s="3"/>
     </row>
     <row r="552" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W552" s="13"/>
-      <c r="Z552" s="13"/>
+      <c r="W552" s="3"/>
+      <c r="Z552" s="3"/>
     </row>
     <row r="553" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W553" s="13"/>
-      <c r="Z553" s="13"/>
+      <c r="W553" s="3"/>
+      <c r="Z553" s="3"/>
     </row>
     <row r="554" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W554" s="13"/>
-      <c r="Z554" s="13"/>
+      <c r="W554" s="3"/>
+      <c r="Z554" s="3"/>
     </row>
     <row r="555" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W555" s="13"/>
-      <c r="Z555" s="13"/>
+      <c r="W555" s="3"/>
+      <c r="Z555" s="3"/>
     </row>
     <row r="556" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W556" s="13"/>
-      <c r="Z556" s="13"/>
+      <c r="W556" s="3"/>
+      <c r="Z556" s="3"/>
     </row>
     <row r="557" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W557" s="13"/>
-      <c r="Z557" s="13"/>
+      <c r="W557" s="3"/>
+      <c r="Z557" s="3"/>
     </row>
     <row r="558" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W558" s="13"/>
-      <c r="Z558" s="13"/>
+      <c r="W558" s="3"/>
+      <c r="Z558" s="3"/>
     </row>
     <row r="559" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W559" s="13"/>
-      <c r="Z559" s="13"/>
+      <c r="W559" s="3"/>
+      <c r="Z559" s="3"/>
     </row>
     <row r="560" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W560" s="13"/>
-      <c r="Z560" s="13"/>
+      <c r="W560" s="3"/>
+      <c r="Z560" s="3"/>
     </row>
     <row r="561" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W561" s="13"/>
-      <c r="Z561" s="13"/>
+      <c r="W561" s="3"/>
+      <c r="Z561" s="3"/>
     </row>
     <row r="562" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W562" s="13"/>
-      <c r="Z562" s="13"/>
+      <c r="W562" s="3"/>
+      <c r="Z562" s="3"/>
     </row>
     <row r="563" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W563" s="13"/>
-      <c r="Z563" s="13"/>
+      <c r="W563" s="3"/>
+      <c r="Z563" s="3"/>
     </row>
     <row r="564" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W564" s="13"/>
-      <c r="Z564" s="13"/>
+      <c r="W564" s="3"/>
+      <c r="Z564" s="3"/>
     </row>
     <row r="565" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W565" s="13"/>
-      <c r="Z565" s="13"/>
+      <c r="W565" s="3"/>
+      <c r="Z565" s="3"/>
     </row>
     <row r="566" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W566" s="13"/>
-      <c r="Z566" s="13"/>
+      <c r="W566" s="3"/>
+      <c r="Z566" s="3"/>
     </row>
     <row r="567" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W567" s="13"/>
-      <c r="Z567" s="13"/>
+      <c r="W567" s="3"/>
+      <c r="Z567" s="3"/>
     </row>
     <row r="568" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W568" s="13"/>
-      <c r="Z568" s="13"/>
+      <c r="W568" s="3"/>
+      <c r="Z568" s="3"/>
     </row>
     <row r="569" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W569" s="13"/>
-      <c r="Z569" s="13"/>
+      <c r="W569" s="3"/>
+      <c r="Z569" s="3"/>
     </row>
     <row r="570" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W570" s="13"/>
-      <c r="Z570" s="13"/>
+      <c r="W570" s="3"/>
+      <c r="Z570" s="3"/>
     </row>
     <row r="571" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W571" s="13"/>
-      <c r="Z571" s="13"/>
+      <c r="W571" s="3"/>
+      <c r="Z571" s="3"/>
     </row>
     <row r="572" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W572" s="13"/>
-      <c r="Z572" s="13"/>
+      <c r="W572" s="3"/>
+      <c r="Z572" s="3"/>
     </row>
     <row r="573" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W573" s="13"/>
-      <c r="Z573" s="13"/>
+      <c r="W573" s="3"/>
+      <c r="Z573" s="3"/>
     </row>
     <row r="574" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W574" s="13"/>
-      <c r="Z574" s="13"/>
+      <c r="W574" s="3"/>
+      <c r="Z574" s="3"/>
     </row>
     <row r="575" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W575" s="13"/>
-      <c r="Z575" s="13"/>
+      <c r="W575" s="3"/>
+      <c r="Z575" s="3"/>
     </row>
     <row r="576" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W576" s="13"/>
-      <c r="Z576" s="13"/>
+      <c r="W576" s="3"/>
+      <c r="Z576" s="3"/>
     </row>
     <row r="577" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W577" s="13"/>
-      <c r="Z577" s="13"/>
+      <c r="W577" s="3"/>
+      <c r="Z577" s="3"/>
     </row>
     <row r="578" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W578" s="13"/>
-      <c r="Z578" s="13"/>
+      <c r="W578" s="3"/>
+      <c r="Z578" s="3"/>
     </row>
     <row r="579" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W579" s="13"/>
-      <c r="Z579" s="13"/>
+      <c r="W579" s="3"/>
+      <c r="Z579" s="3"/>
     </row>
     <row r="580" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W580" s="13"/>
-      <c r="Z580" s="13"/>
+      <c r="W580" s="3"/>
+      <c r="Z580" s="3"/>
     </row>
     <row r="581" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W581" s="13"/>
-      <c r="Z581" s="13"/>
+      <c r="W581" s="3"/>
+      <c r="Z581" s="3"/>
     </row>
     <row r="582" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W582" s="13"/>
-      <c r="Z582" s="13"/>
+      <c r="W582" s="3"/>
+      <c r="Z582" s="3"/>
     </row>
     <row r="583" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W583" s="13"/>
-      <c r="Z583" s="13"/>
+      <c r="W583" s="3"/>
+      <c r="Z583" s="3"/>
     </row>
     <row r="584" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W584" s="13"/>
-      <c r="Z584" s="13"/>
+      <c r="W584" s="3"/>
+      <c r="Z584" s="3"/>
     </row>
     <row r="585" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W585" s="13"/>
-      <c r="Z585" s="13"/>
+      <c r="W585" s="3"/>
+      <c r="Z585" s="3"/>
     </row>
     <row r="586" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W586" s="13"/>
-      <c r="Z586" s="13"/>
+      <c r="W586" s="3"/>
+      <c r="Z586" s="3"/>
     </row>
     <row r="587" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W587" s="13"/>
-      <c r="Z587" s="13"/>
+      <c r="W587" s="3"/>
+      <c r="Z587" s="3"/>
     </row>
     <row r="588" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W588" s="13"/>
-      <c r="Z588" s="13"/>
+      <c r="W588" s="3"/>
+      <c r="Z588" s="3"/>
     </row>
     <row r="589" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W589" s="13"/>
-      <c r="Z589" s="13"/>
+      <c r="W589" s="3"/>
+      <c r="Z589" s="3"/>
     </row>
     <row r="590" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W590" s="13"/>
-      <c r="Z590" s="13"/>
+      <c r="W590" s="3"/>
+      <c r="Z590" s="3"/>
     </row>
     <row r="591" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W591" s="13"/>
-      <c r="Z591" s="13"/>
+      <c r="W591" s="3"/>
+      <c r="Z591" s="3"/>
     </row>
     <row r="592" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W592" s="13"/>
-      <c r="Z592" s="13"/>
+      <c r="W592" s="3"/>
+      <c r="Z592" s="3"/>
     </row>
     <row r="593" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W593" s="13"/>
-      <c r="Z593" s="13"/>
+      <c r="W593" s="3"/>
+      <c r="Z593" s="3"/>
     </row>
     <row r="594" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W594" s="13"/>
-      <c r="Z594" s="13"/>
+      <c r="W594" s="3"/>
+      <c r="Z594" s="3"/>
     </row>
     <row r="595" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W595" s="13"/>
-      <c r="Z595" s="13"/>
+      <c r="W595" s="3"/>
+      <c r="Z595" s="3"/>
     </row>
     <row r="596" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W596" s="13"/>
-      <c r="Z596" s="13"/>
+      <c r="W596" s="3"/>
+      <c r="Z596" s="3"/>
     </row>
     <row r="597" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W597" s="13"/>
-      <c r="Z597" s="13"/>
+      <c r="W597" s="3"/>
+      <c r="Z597" s="3"/>
     </row>
     <row r="598" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W598" s="13"/>
-      <c r="Z598" s="13"/>
+      <c r="W598" s="3"/>
+      <c r="Z598" s="3"/>
     </row>
     <row r="599" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W599" s="13"/>
-      <c r="Z599" s="13"/>
+      <c r="W599" s="3"/>
+      <c r="Z599" s="3"/>
     </row>
     <row r="600" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W600" s="13"/>
-      <c r="Z600" s="13"/>
+      <c r="W600" s="3"/>
+      <c r="Z600" s="3"/>
     </row>
     <row r="601" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W601" s="13"/>
-      <c r="Z601" s="13"/>
+      <c r="W601" s="3"/>
+      <c r="Z601" s="3"/>
     </row>
     <row r="602" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W602" s="13"/>
-      <c r="Z602" s="13"/>
+      <c r="W602" s="3"/>
+      <c r="Z602" s="3"/>
     </row>
     <row r="603" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W603" s="13"/>
-      <c r="Z603" s="13"/>
+      <c r="W603" s="3"/>
+      <c r="Z603" s="3"/>
     </row>
     <row r="604" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W604" s="13"/>
-      <c r="Z604" s="13"/>
+      <c r="W604" s="3"/>
+      <c r="Z604" s="3"/>
     </row>
     <row r="605" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W605" s="13"/>
-      <c r="Z605" s="13"/>
+      <c r="W605" s="3"/>
+      <c r="Z605" s="3"/>
     </row>
     <row r="606" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W606" s="13"/>
-      <c r="Z606" s="13"/>
+      <c r="W606" s="3"/>
+      <c r="Z606" s="3"/>
     </row>
     <row r="607" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W607" s="13"/>
-      <c r="Z607" s="13"/>
+      <c r="W607" s="3"/>
+      <c r="Z607" s="3"/>
     </row>
     <row r="608" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W608" s="13"/>
-      <c r="Z608" s="13"/>
+      <c r="W608" s="3"/>
+      <c r="Z608" s="3"/>
     </row>
     <row r="609" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W609" s="13"/>
-      <c r="Z609" s="13"/>
+      <c r="W609" s="3"/>
+      <c r="Z609" s="3"/>
     </row>
     <row r="610" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W610" s="13"/>
-      <c r="Z610" s="13"/>
+      <c r="W610" s="3"/>
+      <c r="Z610" s="3"/>
     </row>
     <row r="611" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W611" s="13"/>
-      <c r="Z611" s="13"/>
+      <c r="W611" s="3"/>
+      <c r="Z611" s="3"/>
     </row>
     <row r="612" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W612" s="13"/>
-      <c r="Z612" s="13"/>
+      <c r="W612" s="3"/>
+      <c r="Z612" s="3"/>
     </row>
     <row r="613" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W613" s="13"/>
-      <c r="Z613" s="13"/>
+      <c r="W613" s="3"/>
+      <c r="Z613" s="3"/>
     </row>
     <row r="614" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W614" s="13"/>
-      <c r="Z614" s="13"/>
+      <c r="W614" s="3"/>
+      <c r="Z614" s="3"/>
     </row>
     <row r="615" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W615" s="13"/>
-      <c r="Z615" s="13"/>
+      <c r="W615" s="3"/>
+      <c r="Z615" s="3"/>
     </row>
     <row r="616" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W616" s="13"/>
-      <c r="Z616" s="13"/>
+      <c r="W616" s="3"/>
+      <c r="Z616" s="3"/>
     </row>
     <row r="617" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W617" s="13"/>
-      <c r="Z617" s="13"/>
+      <c r="W617" s="3"/>
+      <c r="Z617" s="3"/>
     </row>
     <row r="618" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W618" s="13"/>
-      <c r="Z618" s="13"/>
+      <c r="W618" s="3"/>
+      <c r="Z618" s="3"/>
     </row>
     <row r="619" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W619" s="13"/>
-      <c r="Z619" s="13"/>
+      <c r="W619" s="3"/>
+      <c r="Z619" s="3"/>
     </row>
     <row r="620" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W620" s="13"/>
-      <c r="Z620" s="13"/>
+      <c r="W620" s="3"/>
+      <c r="Z620" s="3"/>
     </row>
     <row r="621" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W621" s="13"/>
-      <c r="Z621" s="13"/>
+      <c r="W621" s="3"/>
+      <c r="Z621" s="3"/>
     </row>
     <row r="622" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W622" s="13"/>
-      <c r="Z622" s="13"/>
+      <c r="W622" s="3"/>
+      <c r="Z622" s="3"/>
     </row>
     <row r="623" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W623" s="13"/>
-      <c r="Z623" s="13"/>
+      <c r="W623" s="3"/>
+      <c r="Z623" s="3"/>
     </row>
     <row r="624" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W624" s="13"/>
-      <c r="Z624" s="13"/>
+      <c r="W624" s="3"/>
+      <c r="Z624" s="3"/>
     </row>
     <row r="625" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W625" s="13"/>
-      <c r="Z625" s="13"/>
+      <c r="W625" s="3"/>
+      <c r="Z625" s="3"/>
     </row>
     <row r="626" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W626" s="13"/>
-      <c r="Z626" s="13"/>
+      <c r="W626" s="3"/>
+      <c r="Z626" s="3"/>
     </row>
     <row r="627" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W627" s="13"/>
-      <c r="Z627" s="13"/>
+      <c r="W627" s="3"/>
+      <c r="Z627" s="3"/>
     </row>
     <row r="628" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W628" s="13"/>
-      <c r="Z628" s="13"/>
+      <c r="W628" s="3"/>
+      <c r="Z628" s="3"/>
     </row>
     <row r="629" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W629" s="13"/>
-      <c r="Z629" s="13"/>
+      <c r="W629" s="3"/>
+      <c r="Z629" s="3"/>
     </row>
     <row r="630" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W630" s="13"/>
-      <c r="Z630" s="13"/>
+      <c r="W630" s="3"/>
+      <c r="Z630" s="3"/>
     </row>
     <row r="631" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W631" s="13"/>
-      <c r="Z631" s="13"/>
+      <c r="W631" s="3"/>
+      <c r="Z631" s="3"/>
     </row>
     <row r="632" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W632" s="13"/>
-      <c r="Z632" s="13"/>
+      <c r="W632" s="3"/>
+      <c r="Z632" s="3"/>
     </row>
     <row r="633" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W633" s="13"/>
-      <c r="Z633" s="13"/>
+      <c r="W633" s="3"/>
+      <c r="Z633" s="3"/>
     </row>
     <row r="634" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W634" s="13"/>
-      <c r="Z634" s="13"/>
+      <c r="W634" s="3"/>
+      <c r="Z634" s="3"/>
     </row>
     <row r="635" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W635" s="13"/>
-      <c r="Z635" s="13"/>
+      <c r="W635" s="3"/>
+      <c r="Z635" s="3"/>
     </row>
     <row r="636" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W636" s="13"/>
-      <c r="Z636" s="13"/>
+      <c r="W636" s="3"/>
+      <c r="Z636" s="3"/>
     </row>
     <row r="637" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W637" s="13"/>
-      <c r="Z637" s="13"/>
+      <c r="W637" s="3"/>
+      <c r="Z637" s="3"/>
     </row>
     <row r="638" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W638" s="13"/>
-      <c r="Z638" s="13"/>
+      <c r="W638" s="3"/>
+      <c r="Z638" s="3"/>
     </row>
     <row r="639" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W639" s="13"/>
-      <c r="Z639" s="13"/>
+      <c r="W639" s="3"/>
+      <c r="Z639" s="3"/>
     </row>
     <row r="640" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W640" s="13"/>
-      <c r="Z640" s="13"/>
+      <c r="W640" s="3"/>
+      <c r="Z640" s="3"/>
     </row>
     <row r="641" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W641" s="13"/>
-      <c r="Z641" s="13"/>
+      <c r="W641" s="3"/>
+      <c r="Z641" s="3"/>
     </row>
     <row r="642" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W642" s="13"/>
-      <c r="Z642" s="13"/>
+      <c r="W642" s="3"/>
+      <c r="Z642" s="3"/>
     </row>
     <row r="643" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W643" s="13"/>
-      <c r="Z643" s="13"/>
+      <c r="W643" s="3"/>
+      <c r="Z643" s="3"/>
     </row>
     <row r="644" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W644" s="13"/>
-      <c r="Z644" s="13"/>
+      <c r="W644" s="3"/>
+      <c r="Z644" s="3"/>
     </row>
     <row r="645" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W645" s="13"/>
-      <c r="Z645" s="13"/>
+      <c r="W645" s="3"/>
+      <c r="Z645" s="3"/>
     </row>
     <row r="646" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W646" s="13"/>
-      <c r="Z646" s="13"/>
+      <c r="W646" s="3"/>
+      <c r="Z646" s="3"/>
     </row>
     <row r="647" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W647" s="13"/>
-      <c r="Z647" s="13"/>
+      <c r="W647" s="3"/>
+      <c r="Z647" s="3"/>
     </row>
     <row r="648" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W648" s="13"/>
-      <c r="Z648" s="13"/>
+      <c r="W648" s="3"/>
+      <c r="Z648" s="3"/>
     </row>
     <row r="649" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W649" s="13"/>
-      <c r="Z649" s="13"/>
+      <c r="W649" s="3"/>
+      <c r="Z649" s="3"/>
     </row>
     <row r="650" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W650" s="13"/>
-      <c r="Z650" s="13"/>
+      <c r="W650" s="3"/>
+      <c r="Z650" s="3"/>
     </row>
     <row r="651" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W651" s="13"/>
-      <c r="Z651" s="13"/>
+      <c r="W651" s="3"/>
+      <c r="Z651" s="3"/>
     </row>
     <row r="652" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W652" s="13"/>
-      <c r="Z652" s="13"/>
+      <c r="W652" s="3"/>
+      <c r="Z652" s="3"/>
     </row>
     <row r="653" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W653" s="13"/>
-      <c r="Z653" s="13"/>
+      <c r="W653" s="3"/>
+      <c r="Z653" s="3"/>
     </row>
     <row r="654" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W654" s="13"/>
-      <c r="Z654" s="13"/>
+      <c r="W654" s="3"/>
+      <c r="Z654" s="3"/>
     </row>
     <row r="655" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W655" s="13"/>
-      <c r="Z655" s="13"/>
+      <c r="W655" s="3"/>
+      <c r="Z655" s="3"/>
     </row>
     <row r="656" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W656" s="13"/>
-      <c r="Z656" s="13"/>
+      <c r="W656" s="3"/>
+      <c r="Z656" s="3"/>
     </row>
     <row r="657" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W657" s="13"/>
-      <c r="Z657" s="13"/>
+      <c r="W657" s="3"/>
+      <c r="Z657" s="3"/>
     </row>
     <row r="658" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W658" s="13"/>
-      <c r="Z658" s="13"/>
+      <c r="W658" s="3"/>
+      <c r="Z658" s="3"/>
     </row>
     <row r="659" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W659" s="13"/>
-      <c r="Z659" s="13"/>
+      <c r="W659" s="3"/>
+      <c r="Z659" s="3"/>
     </row>
     <row r="660" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W660" s="13"/>
-      <c r="Z660" s="13"/>
+      <c r="W660" s="3"/>
+      <c r="Z660" s="3"/>
     </row>
     <row r="661" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W661" s="13"/>
-      <c r="Z661" s="13"/>
+      <c r="W661" s="3"/>
+      <c r="Z661" s="3"/>
     </row>
     <row r="662" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W662" s="13"/>
-      <c r="Z662" s="13"/>
+      <c r="W662" s="3"/>
+      <c r="Z662" s="3"/>
     </row>
     <row r="663" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W663" s="13"/>
-      <c r="Z663" s="13"/>
+      <c r="W663" s="3"/>
+      <c r="Z663" s="3"/>
     </row>
     <row r="664" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W664" s="13"/>
-      <c r="Z664" s="13"/>
+      <c r="W664" s="3"/>
+      <c r="Z664" s="3"/>
     </row>
     <row r="665" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W665" s="13"/>
-      <c r="Z665" s="13"/>
+      <c r="W665" s="3"/>
+      <c r="Z665" s="3"/>
     </row>
     <row r="666" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W666" s="13"/>
-      <c r="Z666" s="13"/>
+      <c r="W666" s="3"/>
+      <c r="Z666" s="3"/>
     </row>
     <row r="667" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W667" s="13"/>
-      <c r="Z667" s="13"/>
+      <c r="W667" s="3"/>
+      <c r="Z667" s="3"/>
     </row>
     <row r="668" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W668" s="13"/>
-      <c r="Z668" s="13"/>
+      <c r="W668" s="3"/>
+      <c r="Z668" s="3"/>
     </row>
     <row r="669" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W669" s="13"/>
-      <c r="Z669" s="13"/>
+      <c r="W669" s="3"/>
+      <c r="Z669" s="3"/>
     </row>
     <row r="670" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W670" s="13"/>
-      <c r="Z670" s="13"/>
+      <c r="W670" s="3"/>
+      <c r="Z670" s="3"/>
     </row>
     <row r="671" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W671" s="13"/>
-      <c r="Z671" s="13"/>
+      <c r="W671" s="3"/>
+      <c r="Z671" s="3"/>
     </row>
     <row r="672" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W672" s="13"/>
-      <c r="Z672" s="13"/>
+      <c r="W672" s="3"/>
+      <c r="Z672" s="3"/>
     </row>
     <row r="673" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W673" s="13"/>
-      <c r="Z673" s="13"/>
+      <c r="W673" s="3"/>
+      <c r="Z673" s="3"/>
     </row>
     <row r="674" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W674" s="13"/>
-      <c r="Z674" s="13"/>
+      <c r="W674" s="3"/>
+      <c r="Z674" s="3"/>
     </row>
     <row r="675" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W675" s="13"/>
-      <c r="Z675" s="13"/>
+      <c r="W675" s="3"/>
+      <c r="Z675" s="3"/>
     </row>
     <row r="676" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W676" s="13"/>
-      <c r="Z676" s="13"/>
+      <c r="W676" s="3"/>
+      <c r="Z676" s="3"/>
     </row>
     <row r="677" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W677" s="13"/>
-      <c r="Z677" s="13"/>
+      <c r="W677" s="3"/>
+      <c r="Z677" s="3"/>
     </row>
     <row r="678" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W678" s="13"/>
-      <c r="Z678" s="13"/>
+      <c r="W678" s="3"/>
+      <c r="Z678" s="3"/>
     </row>
     <row r="679" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W679" s="13"/>
-      <c r="Z679" s="13"/>
+      <c r="W679" s="3"/>
+      <c r="Z679" s="3"/>
     </row>
     <row r="680" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W680" s="13"/>
-      <c r="Z680" s="13"/>
+      <c r="W680" s="3"/>
+      <c r="Z680" s="3"/>
     </row>
     <row r="681" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W681" s="13"/>
-      <c r="Z681" s="13"/>
+      <c r="W681" s="3"/>
+      <c r="Z681" s="3"/>
     </row>
     <row r="682" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W682" s="13"/>
-      <c r="Z682" s="13"/>
+      <c r="W682" s="3"/>
+      <c r="Z682" s="3"/>
     </row>
     <row r="683" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W683" s="13"/>
-      <c r="Z683" s="13"/>
+      <c r="W683" s="3"/>
+      <c r="Z683" s="3"/>
     </row>
     <row r="684" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W684" s="13"/>
-      <c r="Z684" s="13"/>
+      <c r="W684" s="3"/>
+      <c r="Z684" s="3"/>
     </row>
     <row r="685" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W685" s="13"/>
-      <c r="Z685" s="13"/>
+      <c r="W685" s="3"/>
+      <c r="Z685" s="3"/>
     </row>
     <row r="686" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W686" s="13"/>
-      <c r="Z686" s="13"/>
+      <c r="W686" s="3"/>
+      <c r="Z686" s="3"/>
     </row>
     <row r="687" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W687" s="13"/>
-      <c r="Z687" s="13"/>
+      <c r="W687" s="3"/>
+      <c r="Z687" s="3"/>
     </row>
     <row r="688" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W688" s="13"/>
-      <c r="Z688" s="13"/>
+      <c r="W688" s="3"/>
+      <c r="Z688" s="3"/>
     </row>
     <row r="689" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W689" s="13"/>
-      <c r="Z689" s="13"/>
+      <c r="W689" s="3"/>
+      <c r="Z689" s="3"/>
     </row>
     <row r="690" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W690" s="13"/>
-      <c r="Z690" s="13"/>
+      <c r="W690" s="3"/>
+      <c r="Z690" s="3"/>
     </row>
     <row r="691" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W691" s="13"/>
-      <c r="Z691" s="13"/>
+      <c r="W691" s="3"/>
+      <c r="Z691" s="3"/>
     </row>
     <row r="692" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W692" s="13"/>
-      <c r="Z692" s="13"/>
+      <c r="W692" s="3"/>
+      <c r="Z692" s="3"/>
     </row>
     <row r="693" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W693" s="13"/>
-      <c r="Z693" s="13"/>
+      <c r="W693" s="3"/>
+      <c r="Z693" s="3"/>
     </row>
     <row r="694" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W694" s="13"/>
-      <c r="Z694" s="13"/>
+      <c r="W694" s="3"/>
+      <c r="Z694" s="3"/>
     </row>
     <row r="695" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W695" s="13"/>
-      <c r="Z695" s="13"/>
+      <c r="W695" s="3"/>
+      <c r="Z695" s="3"/>
     </row>
     <row r="696" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W696" s="13"/>
-      <c r="Z696" s="13"/>
+      <c r="W696" s="3"/>
+      <c r="Z696" s="3"/>
     </row>
     <row r="697" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W697" s="13"/>
-      <c r="Z697" s="13"/>
+      <c r="W697" s="3"/>
+      <c r="Z697" s="3"/>
     </row>
     <row r="698" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W698" s="13"/>
-      <c r="Z698" s="13"/>
+      <c r="W698" s="3"/>
+      <c r="Z698" s="3"/>
     </row>
     <row r="699" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W699" s="13"/>
-      <c r="Z699" s="13"/>
+      <c r="W699" s="3"/>
+      <c r="Z699" s="3"/>
     </row>
     <row r="700" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W700" s="13"/>
-      <c r="Z700" s="13"/>
+      <c r="W700" s="3"/>
+      <c r="Z700" s="3"/>
     </row>
     <row r="701" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W701" s="13"/>
-      <c r="Z701" s="13"/>
+      <c r="W701" s="3"/>
+      <c r="Z701" s="3"/>
     </row>
     <row r="702" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W702" s="13"/>
-      <c r="Z702" s="13"/>
+      <c r="W702" s="3"/>
+      <c r="Z702" s="3"/>
     </row>
     <row r="703" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W703" s="13"/>
-      <c r="Z703" s="13"/>
+      <c r="W703" s="3"/>
+      <c r="Z703" s="3"/>
     </row>
     <row r="704" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W704" s="13"/>
-      <c r="Z704" s="13"/>
+      <c r="W704" s="3"/>
+      <c r="Z704" s="3"/>
     </row>
     <row r="705" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W705" s="13"/>
-      <c r="Z705" s="13"/>
+      <c r="W705" s="3"/>
+      <c r="Z705" s="3"/>
     </row>
     <row r="706" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W706" s="13"/>
-      <c r="Z706" s="13"/>
+      <c r="W706" s="3"/>
+      <c r="Z706" s="3"/>
     </row>
     <row r="707" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W707" s="13"/>
-      <c r="Z707" s="13"/>
+      <c r="W707" s="3"/>
+      <c r="Z707" s="3"/>
     </row>
     <row r="708" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W708" s="13"/>
-      <c r="Z708" s="13"/>
+      <c r="W708" s="3"/>
+      <c r="Z708" s="3"/>
     </row>
     <row r="709" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W709" s="13"/>
-      <c r="Z709" s="13"/>
+      <c r="W709" s="3"/>
+      <c r="Z709" s="3"/>
     </row>
     <row r="710" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W710" s="13"/>
-      <c r="Z710" s="13"/>
+      <c r="W710" s="3"/>
+      <c r="Z710" s="3"/>
     </row>
     <row r="711" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W711" s="13"/>
-      <c r="Z711" s="13"/>
+      <c r="W711" s="3"/>
+      <c r="Z711" s="3"/>
     </row>
     <row r="712" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W712" s="13"/>
-      <c r="Z712" s="13"/>
+      <c r="W712" s="3"/>
+      <c r="Z712" s="3"/>
     </row>
     <row r="713" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W713" s="13"/>
-      <c r="Z713" s="13"/>
+      <c r="W713" s="3"/>
+      <c r="Z713" s="3"/>
     </row>
     <row r="714" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W714" s="13"/>
-      <c r="Z714" s="13"/>
+      <c r="W714" s="3"/>
+      <c r="Z714" s="3"/>
     </row>
     <row r="715" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W715" s="13"/>
-      <c r="Z715" s="13"/>
+      <c r="W715" s="3"/>
+      <c r="Z715" s="3"/>
     </row>
     <row r="716" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W716" s="13"/>
-      <c r="Z716" s="13"/>
+      <c r="W716" s="3"/>
+      <c r="Z716" s="3"/>
     </row>
     <row r="717" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W717" s="13"/>
-      <c r="Z717" s="13"/>
+      <c r="W717" s="3"/>
+      <c r="Z717" s="3"/>
     </row>
     <row r="718" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W718" s="13"/>
-      <c r="Z718" s="13"/>
+      <c r="W718" s="3"/>
+      <c r="Z718" s="3"/>
     </row>
     <row r="719" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W719" s="13"/>
-      <c r="Z719" s="13"/>
+      <c r="W719" s="3"/>
+      <c r="Z719" s="3"/>
     </row>
     <row r="720" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W720" s="13"/>
-      <c r="Z720" s="13"/>
+      <c r="W720" s="3"/>
+      <c r="Z720" s="3"/>
     </row>
     <row r="721" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W721" s="13"/>
-      <c r="Z721" s="13"/>
+      <c r="W721" s="3"/>
+      <c r="Z721" s="3"/>
     </row>
     <row r="722" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W722" s="13"/>
-      <c r="Z722" s="13"/>
+      <c r="W722" s="3"/>
+      <c r="Z722" s="3"/>
     </row>
     <row r="723" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W723" s="13"/>
-      <c r="Z723" s="13"/>
+      <c r="W723" s="3"/>
+      <c r="Z723" s="3"/>
     </row>
     <row r="724" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W724" s="13"/>
-      <c r="Z724" s="13"/>
+      <c r="W724" s="3"/>
+      <c r="Z724" s="3"/>
     </row>
     <row r="725" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W725" s="13"/>
-      <c r="Z725" s="13"/>
+      <c r="W725" s="3"/>
+      <c r="Z725" s="3"/>
     </row>
     <row r="726" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W726" s="13"/>
-      <c r="Z726" s="13"/>
+      <c r="W726" s="3"/>
+      <c r="Z726" s="3"/>
     </row>
     <row r="727" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W727" s="13"/>
-      <c r="Z727" s="13"/>
+      <c r="W727" s="3"/>
+      <c r="Z727" s="3"/>
     </row>
     <row r="728" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W728" s="13"/>
-      <c r="Z728" s="13"/>
+      <c r="W728" s="3"/>
+      <c r="Z728" s="3"/>
     </row>
     <row r="729" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W729" s="13"/>
-      <c r="Z729" s="13"/>
+      <c r="W729" s="3"/>
+      <c r="Z729" s="3"/>
     </row>
     <row r="730" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W730" s="13"/>
-      <c r="Z730" s="13"/>
+      <c r="W730" s="3"/>
+      <c r="Z730" s="3"/>
     </row>
     <row r="731" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W731" s="13"/>
-      <c r="Z731" s="13"/>
+      <c r="W731" s="3"/>
+      <c r="Z731" s="3"/>
     </row>
     <row r="732" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W732" s="13"/>
-      <c r="Z732" s="13"/>
+      <c r="W732" s="3"/>
+      <c r="Z732" s="3"/>
     </row>
     <row r="733" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W733" s="13"/>
-      <c r="Z733" s="13"/>
+      <c r="W733" s="3"/>
+      <c r="Z733" s="3"/>
     </row>
     <row r="734" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W734" s="13"/>
-      <c r="Z734" s="13"/>
+      <c r="W734" s="3"/>
+      <c r="Z734" s="3"/>
     </row>
     <row r="735" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W735" s="13"/>
-      <c r="Z735" s="13"/>
+      <c r="W735" s="3"/>
+      <c r="Z735" s="3"/>
     </row>
     <row r="736" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W736" s="13"/>
-      <c r="Z736" s="13"/>
+      <c r="W736" s="3"/>
+      <c r="Z736" s="3"/>
     </row>
     <row r="737" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W737" s="13"/>
-      <c r="Z737" s="13"/>
+      <c r="W737" s="3"/>
+      <c r="Z737" s="3"/>
     </row>
     <row r="738" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W738" s="13"/>
-      <c r="Z738" s="13"/>
+      <c r="W738" s="3"/>
+      <c r="Z738" s="3"/>
     </row>
     <row r="739" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W739" s="13"/>
-      <c r="Z739" s="13"/>
+      <c r="W739" s="3"/>
+      <c r="Z739" s="3"/>
     </row>
     <row r="740" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W740" s="13"/>
-      <c r="Z740" s="13"/>
+      <c r="W740" s="3"/>
+      <c r="Z740" s="3"/>
     </row>
     <row r="741" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W741" s="13"/>
-      <c r="Z741" s="13"/>
+      <c r="W741" s="3"/>
+      <c r="Z741" s="3"/>
     </row>
     <row r="742" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W742" s="13"/>
-      <c r="Z742" s="13"/>
+      <c r="W742" s="3"/>
+      <c r="Z742" s="3"/>
     </row>
     <row r="743" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W743" s="13"/>
-      <c r="Z743" s="13"/>
+      <c r="W743" s="3"/>
+      <c r="Z743" s="3"/>
     </row>
     <row r="744" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W744" s="13"/>
-      <c r="Z744" s="13"/>
+      <c r="W744" s="3"/>
+      <c r="Z744" s="3"/>
     </row>
     <row r="745" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W745" s="13"/>
-      <c r="Z745" s="13"/>
+      <c r="W745" s="3"/>
+      <c r="Z745" s="3"/>
     </row>
     <row r="746" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W746" s="13"/>
-      <c r="Z746" s="13"/>
+      <c r="W746" s="3"/>
+      <c r="Z746" s="3"/>
     </row>
     <row r="747" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W747" s="13"/>
-      <c r="Z747" s="13"/>
+      <c r="W747" s="3"/>
+      <c r="Z747" s="3"/>
     </row>
     <row r="748" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W748" s="13"/>
-      <c r="Z748" s="13"/>
+      <c r="W748" s="3"/>
+      <c r="Z748" s="3"/>
     </row>
     <row r="749" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W749" s="13"/>
-      <c r="Z749" s="13"/>
+      <c r="W749" s="3"/>
+      <c r="Z749" s="3"/>
     </row>
     <row r="750" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W750" s="13"/>
-      <c r="Z750" s="13"/>
+      <c r="W750" s="3"/>
+      <c r="Z750" s="3"/>
     </row>
     <row r="751" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W751" s="13"/>
-      <c r="Z751" s="13"/>
+      <c r="W751" s="3"/>
+      <c r="Z751" s="3"/>
     </row>
     <row r="752" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W752" s="13"/>
-      <c r="Z752" s="13"/>
+      <c r="W752" s="3"/>
+      <c r="Z752" s="3"/>
     </row>
     <row r="753" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W753" s="13"/>
-      <c r="Z753" s="13"/>
+      <c r="W753" s="3"/>
+      <c r="Z753" s="3"/>
     </row>
     <row r="754" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W754" s="13"/>
-      <c r="Z754" s="13"/>
+      <c r="W754" s="3"/>
+      <c r="Z754" s="3"/>
     </row>
     <row r="755" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W755" s="13"/>
-      <c r="Z755" s="13"/>
+      <c r="W755" s="3"/>
+      <c r="Z755" s="3"/>
     </row>
     <row r="756" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W756" s="13"/>
-      <c r="Z756" s="13"/>
+      <c r="W756" s="3"/>
+      <c r="Z756" s="3"/>
     </row>
     <row r="757" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W757" s="13"/>
-      <c r="Z757" s="13"/>
+      <c r="W757" s="3"/>
+      <c r="Z757" s="3"/>
     </row>
     <row r="758" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W758" s="13"/>
-      <c r="Z758" s="13"/>
+      <c r="W758" s="3"/>
+      <c r="Z758" s="3"/>
     </row>
     <row r="759" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W759" s="13"/>
-      <c r="Z759" s="13"/>
+      <c r="W759" s="3"/>
+      <c r="Z759" s="3"/>
     </row>
     <row r="760" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W760" s="13"/>
-      <c r="Z760" s="13"/>
+      <c r="W760" s="3"/>
+      <c r="Z760" s="3"/>
     </row>
     <row r="761" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W761" s="13"/>
-      <c r="Z761" s="13"/>
+      <c r="W761" s="3"/>
+      <c r="Z761" s="3"/>
     </row>
     <row r="762" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W762" s="13"/>
-      <c r="Z762" s="13"/>
+      <c r="W762" s="3"/>
+      <c r="Z762" s="3"/>
     </row>
     <row r="763" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W763" s="13"/>
-      <c r="Z763" s="13"/>
+      <c r="W763" s="3"/>
+      <c r="Z763" s="3"/>
     </row>
     <row r="764" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W764" s="13"/>
-      <c r="Z764" s="13"/>
+      <c r="W764" s="3"/>
+      <c r="Z764" s="3"/>
     </row>
     <row r="765" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W765" s="13"/>
-      <c r="Z765" s="13"/>
+      <c r="W765" s="3"/>
+      <c r="Z765" s="3"/>
     </row>
     <row r="766" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W766" s="13"/>
-      <c r="Z766" s="13"/>
+      <c r="W766" s="3"/>
+      <c r="Z766" s="3"/>
     </row>
     <row r="767" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W767" s="13"/>
-      <c r="Z767" s="13"/>
+      <c r="W767" s="3"/>
+      <c r="Z767" s="3"/>
     </row>
     <row r="768" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W768" s="13"/>
-      <c r="Z768" s="13"/>
+      <c r="W768" s="3"/>
+      <c r="Z768" s="3"/>
     </row>
     <row r="769" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W769" s="13"/>
-      <c r="Z769" s="13"/>
+      <c r="W769" s="3"/>
+      <c r="Z769" s="3"/>
     </row>
     <row r="770" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W770" s="13"/>
-      <c r="Z770" s="13"/>
+      <c r="W770" s="3"/>
+      <c r="Z770" s="3"/>
     </row>
     <row r="771" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W771" s="13"/>
-      <c r="Z771" s="13"/>
+      <c r="W771" s="3"/>
+      <c r="Z771" s="3"/>
     </row>
     <row r="772" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W772" s="13"/>
-      <c r="Z772" s="13"/>
+      <c r="W772" s="3"/>
+      <c r="Z772" s="3"/>
     </row>
     <row r="773" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W773" s="13"/>
-      <c r="Z773" s="13"/>
+      <c r="W773" s="3"/>
+      <c r="Z773" s="3"/>
     </row>
     <row r="774" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W774" s="13"/>
-      <c r="Z774" s="13"/>
+      <c r="W774" s="3"/>
+      <c r="Z774" s="3"/>
     </row>
     <row r="775" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W775" s="13"/>
-      <c r="Z775" s="13"/>
+      <c r="W775" s="3"/>
+      <c r="Z775" s="3"/>
     </row>
     <row r="776" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W776" s="13"/>
-      <c r="Z776" s="13"/>
+      <c r="W776" s="3"/>
+      <c r="Z776" s="3"/>
     </row>
     <row r="777" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W777" s="13"/>
-      <c r="Z777" s="13"/>
+      <c r="W777" s="3"/>
+      <c r="Z777" s="3"/>
     </row>
     <row r="778" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W778" s="13"/>
-      <c r="Z778" s="13"/>
+      <c r="W778" s="3"/>
+      <c r="Z778" s="3"/>
     </row>
     <row r="779" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W779" s="13"/>
-      <c r="Z779" s="13"/>
+      <c r="W779" s="3"/>
+      <c r="Z779" s="3"/>
     </row>
     <row r="780" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W780" s="13"/>
-      <c r="Z780" s="13"/>
+      <c r="W780" s="3"/>
+      <c r="Z780" s="3"/>
     </row>
     <row r="781" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W781" s="13"/>
-      <c r="Z781" s="13"/>
+      <c r="W781" s="3"/>
+      <c r="Z781" s="3"/>
     </row>
     <row r="782" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W782" s="13"/>
-      <c r="Z782" s="13"/>
+      <c r="W782" s="3"/>
+      <c r="Z782" s="3"/>
     </row>
     <row r="783" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W783" s="13"/>
-      <c r="Z783" s="13"/>
+      <c r="W783" s="3"/>
+      <c r="Z783" s="3"/>
     </row>
     <row r="784" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W784" s="13"/>
-      <c r="Z784" s="13"/>
+      <c r="W784" s="3"/>
+      <c r="Z784" s="3"/>
     </row>
     <row r="785" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W785" s="13"/>
-      <c r="Z785" s="13"/>
+      <c r="W785" s="3"/>
+      <c r="Z785" s="3"/>
     </row>
     <row r="786" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W786" s="13"/>
-      <c r="Z786" s="13"/>
+      <c r="W786" s="3"/>
+      <c r="Z786" s="3"/>
     </row>
     <row r="787" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W787" s="13"/>
-      <c r="Z787" s="13"/>
+      <c r="W787" s="3"/>
+      <c r="Z787" s="3"/>
     </row>
     <row r="788" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W788" s="13"/>
-      <c r="Z788" s="13"/>
+      <c r="W788" s="3"/>
+      <c r="Z788" s="3"/>
     </row>
     <row r="789" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W789" s="13"/>
-      <c r="Z789" s="13"/>
+      <c r="W789" s="3"/>
+      <c r="Z789" s="3"/>
     </row>
     <row r="790" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W790" s="13"/>
-      <c r="Z790" s="13"/>
+      <c r="W790" s="3"/>
+      <c r="Z790" s="3"/>
     </row>
     <row r="791" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W791" s="13"/>
-      <c r="Z791" s="13"/>
+      <c r="W791" s="3"/>
+      <c r="Z791" s="3"/>
     </row>
     <row r="792" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W792" s="13"/>
-      <c r="Z792" s="13"/>
+      <c r="W792" s="3"/>
+      <c r="Z792" s="3"/>
     </row>
     <row r="793" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W793" s="13"/>
-      <c r="Z793" s="13"/>
+      <c r="W793" s="3"/>
+      <c r="Z793" s="3"/>
     </row>
     <row r="794" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W794" s="13"/>
-      <c r="Z794" s="13"/>
+      <c r="W794" s="3"/>
+      <c r="Z794" s="3"/>
     </row>
     <row r="795" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W795" s="13"/>
-      <c r="Z795" s="13"/>
+      <c r="W795" s="3"/>
+      <c r="Z795" s="3"/>
     </row>
     <row r="796" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W796" s="13"/>
-      <c r="Z796" s="13"/>
+      <c r="W796" s="3"/>
+      <c r="Z796" s="3"/>
     </row>
     <row r="797" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W797" s="13"/>
-      <c r="Z797" s="13"/>
+      <c r="W797" s="3"/>
+      <c r="Z797" s="3"/>
     </row>
     <row r="798" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W798" s="13"/>
-      <c r="Z798" s="13"/>
+      <c r="W798" s="3"/>
+      <c r="Z798" s="3"/>
     </row>
     <row r="799" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W799" s="13"/>
-      <c r="Z799" s="13"/>
+      <c r="W799" s="3"/>
+      <c r="Z799" s="3"/>
     </row>
     <row r="800" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W800" s="13"/>
-      <c r="Z800" s="13"/>
+      <c r="W800" s="3"/>
+      <c r="Z800" s="3"/>
     </row>
     <row r="801" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W801" s="13"/>
-      <c r="Z801" s="13"/>
+      <c r="W801" s="3"/>
+      <c r="Z801" s="3"/>
     </row>
     <row r="802" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W802" s="13"/>
-      <c r="Z802" s="13"/>
+      <c r="W802" s="3"/>
+      <c r="Z802" s="3"/>
     </row>
     <row r="803" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W803" s="13"/>
-      <c r="Z803" s="13"/>
+      <c r="W803" s="3"/>
+      <c r="Z803" s="3"/>
     </row>
     <row r="804" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W804" s="13"/>
-      <c r="Z804" s="13"/>
+      <c r="W804" s="3"/>
+      <c r="Z804" s="3"/>
     </row>
     <row r="805" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W805" s="13"/>
-      <c r="Z805" s="13"/>
+      <c r="W805" s="3"/>
+      <c r="Z805" s="3"/>
     </row>
     <row r="806" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W806" s="13"/>
-      <c r="Z806" s="13"/>
+      <c r="W806" s="3"/>
+      <c r="Z806" s="3"/>
     </row>
     <row r="807" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W807" s="13"/>
-      <c r="Z807" s="13"/>
+      <c r="W807" s="3"/>
+      <c r="Z807" s="3"/>
     </row>
     <row r="808" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W808" s="13"/>
-      <c r="Z808" s="13"/>
+      <c r="W808" s="3"/>
+      <c r="Z808" s="3"/>
     </row>
     <row r="809" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W809" s="13"/>
-      <c r="Z809" s="13"/>
+      <c r="W809" s="3"/>
+      <c r="Z809" s="3"/>
     </row>
     <row r="810" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W810" s="13"/>
-      <c r="Z810" s="13"/>
+      <c r="W810" s="3"/>
+      <c r="Z810" s="3"/>
     </row>
     <row r="811" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W811" s="13"/>
-      <c r="Z811" s="13"/>
+      <c r="W811" s="3"/>
+      <c r="Z811" s="3"/>
     </row>
     <row r="812" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W812" s="13"/>
-      <c r="Z812" s="13"/>
+      <c r="W812" s="3"/>
+      <c r="Z812" s="3"/>
     </row>
     <row r="813" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W813" s="13"/>
-      <c r="Z813" s="13"/>
+      <c r="W813" s="3"/>
+      <c r="Z813" s="3"/>
     </row>
     <row r="814" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W814" s="13"/>
-      <c r="Z814" s="13"/>
+      <c r="W814" s="3"/>
+      <c r="Z814" s="3"/>
     </row>
     <row r="815" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W815" s="13"/>
-      <c r="Z815" s="13"/>
+      <c r="W815" s="3"/>
+      <c r="Z815" s="3"/>
     </row>
     <row r="816" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W816" s="13"/>
-      <c r="Z816" s="13"/>
+      <c r="W816" s="3"/>
+      <c r="Z816" s="3"/>
     </row>
     <row r="817" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W817" s="13"/>
-      <c r="Z817" s="13"/>
+      <c r="W817" s="3"/>
+      <c r="Z817" s="3"/>
     </row>
     <row r="818" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W818" s="13"/>
-      <c r="Z818" s="13"/>
+      <c r="W818" s="3"/>
+      <c r="Z818" s="3"/>
     </row>
     <row r="819" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W819" s="13"/>
-      <c r="Z819" s="13"/>
+      <c r="W819" s="3"/>
+      <c r="Z819" s="3"/>
     </row>
     <row r="820" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W820" s="13"/>
-      <c r="Z820" s="13"/>
+      <c r="W820" s="3"/>
+      <c r="Z820" s="3"/>
     </row>
     <row r="821" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W821" s="13"/>
-      <c r="Z821" s="13"/>
+      <c r="W821" s="3"/>
+      <c r="Z821" s="3"/>
     </row>
     <row r="822" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W822" s="13"/>
-      <c r="Z822" s="13"/>
+      <c r="W822" s="3"/>
+      <c r="Z822" s="3"/>
     </row>
     <row r="823" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W823" s="13"/>
-      <c r="Z823" s="13"/>
+      <c r="W823" s="3"/>
+      <c r="Z823" s="3"/>
     </row>
     <row r="824" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W824" s="13"/>
-      <c r="Z824" s="13"/>
+      <c r="W824" s="3"/>
+      <c r="Z824" s="3"/>
     </row>
     <row r="825" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W825" s="13"/>
-      <c r="Z825" s="13"/>
+      <c r="W825" s="3"/>
+      <c r="Z825" s="3"/>
     </row>
     <row r="826" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W826" s="13"/>
-      <c r="Z826" s="13"/>
+      <c r="W826" s="3"/>
+      <c r="Z826" s="3"/>
     </row>
     <row r="827" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W827" s="13"/>
-      <c r="Z827" s="13"/>
+      <c r="W827" s="3"/>
+      <c r="Z827" s="3"/>
     </row>
     <row r="828" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W828" s="13"/>
-      <c r="Z828" s="13"/>
+      <c r="W828" s="3"/>
+      <c r="Z828" s="3"/>
     </row>
     <row r="829" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W829" s="13"/>
-      <c r="Z829" s="13"/>
+      <c r="W829" s="3"/>
+      <c r="Z829" s="3"/>
     </row>
     <row r="830" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W830" s="13"/>
-      <c r="Z830" s="13"/>
+      <c r="W830" s="3"/>
+      <c r="Z830" s="3"/>
     </row>
     <row r="831" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W831" s="13"/>
-      <c r="Z831" s="13"/>
+      <c r="W831" s="3"/>
+      <c r="Z831" s="3"/>
     </row>
     <row r="832" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W832" s="13"/>
-      <c r="Z832" s="13"/>
+      <c r="W832" s="3"/>
+      <c r="Z832" s="3"/>
     </row>
     <row r="833" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W833" s="13"/>
-      <c r="Z833" s="13"/>
+      <c r="W833" s="3"/>
+      <c r="Z833" s="3"/>
     </row>
     <row r="834" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W834" s="13"/>
-      <c r="Z834" s="13"/>
+      <c r="W834" s="3"/>
+      <c r="Z834" s="3"/>
     </row>
     <row r="835" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W835" s="13"/>
-      <c r="Z835" s="13"/>
+      <c r="W835" s="3"/>
+      <c r="Z835" s="3"/>
     </row>
     <row r="836" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W836" s="13"/>
-      <c r="Z836" s="13"/>
+      <c r="W836" s="3"/>
+      <c r="Z836" s="3"/>
     </row>
     <row r="837" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W837" s="13"/>
-      <c r="Z837" s="13"/>
+      <c r="W837" s="3"/>
+      <c r="Z837" s="3"/>
     </row>
     <row r="838" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W838" s="13"/>
-      <c r="Z838" s="13"/>
+      <c r="W838" s="3"/>
+      <c r="Z838" s="3"/>
     </row>
     <row r="839" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W839" s="13"/>
-      <c r="Z839" s="13"/>
+      <c r="W839" s="3"/>
+      <c r="Z839" s="3"/>
     </row>
     <row r="840" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W840" s="13"/>
-      <c r="Z840" s="13"/>
+      <c r="W840" s="3"/>
+      <c r="Z840" s="3"/>
     </row>
     <row r="841" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W841" s="13"/>
-      <c r="Z841" s="13"/>
+      <c r="W841" s="3"/>
+      <c r="Z841" s="3"/>
     </row>
     <row r="842" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W842" s="13"/>
-      <c r="Z842" s="13"/>
+      <c r="W842" s="3"/>
+      <c r="Z842" s="3"/>
     </row>
     <row r="843" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W843" s="13"/>
-      <c r="Z843" s="13"/>
+      <c r="W843" s="3"/>
+      <c r="Z843" s="3"/>
     </row>
     <row r="844" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W844" s="13"/>
-      <c r="Z844" s="13"/>
+      <c r="W844" s="3"/>
+      <c r="Z844" s="3"/>
     </row>
     <row r="845" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W845" s="13"/>
-      <c r="Z845" s="13"/>
+      <c r="W845" s="3"/>
+      <c r="Z845" s="3"/>
     </row>
     <row r="846" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W846" s="13"/>
-      <c r="Z846" s="13"/>
+      <c r="W846" s="3"/>
+      <c r="Z846" s="3"/>
     </row>
     <row r="847" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W847" s="13"/>
-      <c r="Z847" s="13"/>
+      <c r="W847" s="3"/>
+      <c r="Z847" s="3"/>
     </row>
     <row r="848" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W848" s="13"/>
-      <c r="Z848" s="13"/>
+      <c r="W848" s="3"/>
+      <c r="Z848" s="3"/>
     </row>
     <row r="849" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W849" s="13"/>
-      <c r="Z849" s="13"/>
+      <c r="W849" s="3"/>
+      <c r="Z849" s="3"/>
     </row>
     <row r="850" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W850" s="13"/>
-      <c r="Z850" s="13"/>
+      <c r="W850" s="3"/>
+      <c r="Z850" s="3"/>
     </row>
     <row r="851" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W851" s="13"/>
-      <c r="Z851" s="13"/>
+      <c r="W851" s="3"/>
+      <c r="Z851" s="3"/>
     </row>
     <row r="852" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W852" s="13"/>
-      <c r="Z852" s="13"/>
+      <c r="W852" s="3"/>
+      <c r="Z852" s="3"/>
     </row>
     <row r="853" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W853" s="13"/>
-      <c r="Z853" s="13"/>
+      <c r="W853" s="3"/>
+      <c r="Z853" s="3"/>
     </row>
     <row r="854" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W854" s="13"/>
-      <c r="Z854" s="13"/>
+      <c r="W854" s="3"/>
+      <c r="Z854" s="3"/>
     </row>
     <row r="855" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W855" s="13"/>
-      <c r="Z855" s="13"/>
+      <c r="W855" s="3"/>
+      <c r="Z855" s="3"/>
     </row>
     <row r="856" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W856" s="13"/>
-      <c r="Z856" s="13"/>
+      <c r="W856" s="3"/>
+      <c r="Z856" s="3"/>
     </row>
     <row r="857" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W857" s="13"/>
-      <c r="Z857" s="13"/>
+      <c r="W857" s="3"/>
+      <c r="Z857" s="3"/>
     </row>
     <row r="858" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W858" s="13"/>
-      <c r="Z858" s="13"/>
+      <c r="W858" s="3"/>
+      <c r="Z858" s="3"/>
     </row>
     <row r="859" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W859" s="13"/>
-      <c r="Z859" s="13"/>
+      <c r="W859" s="3"/>
+      <c r="Z859" s="3"/>
     </row>
     <row r="860" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W860" s="13"/>
-      <c r="Z860" s="13"/>
+      <c r="W860" s="3"/>
+      <c r="Z860" s="3"/>
     </row>
     <row r="861" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W861" s="13"/>
-      <c r="Z861" s="13"/>
+      <c r="W861" s="3"/>
+      <c r="Z861" s="3"/>
     </row>
     <row r="862" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W862" s="13"/>
-      <c r="Z862" s="13"/>
+      <c r="W862" s="3"/>
+      <c r="Z862" s="3"/>
     </row>
     <row r="863" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W863" s="13"/>
-      <c r="Z863" s="13"/>
+      <c r="W863" s="3"/>
+      <c r="Z863" s="3"/>
     </row>
     <row r="864" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W864" s="13"/>
-      <c r="Z864" s="13"/>
+      <c r="W864" s="3"/>
+      <c r="Z864" s="3"/>
     </row>
     <row r="865" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W865" s="13"/>
-      <c r="Z865" s="13"/>
+      <c r="W865" s="3"/>
+      <c r="Z865" s="3"/>
     </row>
     <row r="866" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W866" s="13"/>
-      <c r="Z866" s="13"/>
+      <c r="W866" s="3"/>
+      <c r="Z866" s="3"/>
     </row>
     <row r="867" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W867" s="13"/>
-      <c r="Z867" s="13"/>
+      <c r="W867" s="3"/>
+      <c r="Z867" s="3"/>
     </row>
     <row r="868" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W868" s="13"/>
-      <c r="Z868" s="13"/>
+      <c r="W868" s="3"/>
+      <c r="Z868" s="3"/>
     </row>
     <row r="869" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W869" s="13"/>
-      <c r="Z869" s="13"/>
+      <c r="W869" s="3"/>
+      <c r="Z869" s="3"/>
     </row>
     <row r="870" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W870" s="13"/>
-      <c r="Z870" s="13"/>
+      <c r="W870" s="3"/>
+      <c r="Z870" s="3"/>
     </row>
     <row r="871" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W871" s="13"/>
-      <c r="Z871" s="13"/>
+      <c r="W871" s="3"/>
+      <c r="Z871" s="3"/>
     </row>
     <row r="872" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W872" s="13"/>
-      <c r="Z872" s="13"/>
+      <c r="W872" s="3"/>
+      <c r="Z872" s="3"/>
     </row>
     <row r="873" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W873" s="13"/>
-      <c r="Z873" s="13"/>
+      <c r="W873" s="3"/>
+      <c r="Z873" s="3"/>
     </row>
     <row r="874" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W874" s="13"/>
-      <c r="Z874" s="13"/>
+      <c r="W874" s="3"/>
+      <c r="Z874" s="3"/>
     </row>
     <row r="875" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W875" s="13"/>
-      <c r="Z875" s="13"/>
+      <c r="W875" s="3"/>
+      <c r="Z875" s="3"/>
     </row>
     <row r="876" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W876" s="13"/>
-      <c r="Z876" s="13"/>
+      <c r="W876" s="3"/>
+      <c r="Z876" s="3"/>
     </row>
     <row r="877" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W877" s="13"/>
-      <c r="Z877" s="13"/>
+      <c r="W877" s="3"/>
+      <c r="Z877" s="3"/>
     </row>
     <row r="878" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W878" s="13"/>
-      <c r="Z878" s="13"/>
+      <c r="W878" s="3"/>
+      <c r="Z878" s="3"/>
     </row>
     <row r="879" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W879" s="13"/>
-      <c r="Z879" s="13"/>
+      <c r="W879" s="3"/>
+      <c r="Z879" s="3"/>
     </row>
     <row r="880" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W880" s="13"/>
-      <c r="Z880" s="13"/>
+      <c r="W880" s="3"/>
+      <c r="Z880" s="3"/>
     </row>
     <row r="881" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W881" s="13"/>
-      <c r="Z881" s="13"/>
+      <c r="W881" s="3"/>
+      <c r="Z881" s="3"/>
     </row>
     <row r="882" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W882" s="13"/>
-      <c r="Z882" s="13"/>
+      <c r="W882" s="3"/>
+      <c r="Z882" s="3"/>
     </row>
     <row r="883" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W883" s="13"/>
-      <c r="Z883" s="13"/>
+      <c r="W883" s="3"/>
+      <c r="Z883" s="3"/>
     </row>
     <row r="884" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W884" s="13"/>
-      <c r="Z884" s="13"/>
+      <c r="W884" s="3"/>
+      <c r="Z884" s="3"/>
     </row>
     <row r="885" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W885" s="13"/>
-      <c r="Z885" s="13"/>
+      <c r="W885" s="3"/>
+      <c r="Z885" s="3"/>
     </row>
     <row r="886" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W886" s="13"/>
-      <c r="Z886" s="13"/>
+      <c r="W886" s="3"/>
+      <c r="Z886" s="3"/>
     </row>
     <row r="887" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W887" s="13"/>
-      <c r="Z887" s="13"/>
+      <c r="W887" s="3"/>
+      <c r="Z887" s="3"/>
     </row>
     <row r="888" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W888" s="13"/>
-      <c r="Z888" s="13"/>
+      <c r="W888" s="3"/>
+      <c r="Z888" s="3"/>
     </row>
     <row r="889" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W889" s="13"/>
-      <c r="Z889" s="13"/>
+      <c r="W889" s="3"/>
+      <c r="Z889" s="3"/>
     </row>
     <row r="890" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W890" s="13"/>
-      <c r="Z890" s="13"/>
+      <c r="W890" s="3"/>
+      <c r="Z890" s="3"/>
     </row>
     <row r="891" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W891" s="13"/>
-      <c r="Z891" s="13"/>
+      <c r="W891" s="3"/>
+      <c r="Z891" s="3"/>
     </row>
     <row r="892" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W892" s="13"/>
-      <c r="Z892" s="13"/>
+      <c r="W892" s="3"/>
+      <c r="Z892" s="3"/>
     </row>
     <row r="893" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W893" s="13"/>
-      <c r="Z893" s="13"/>
+      <c r="W893" s="3"/>
+      <c r="Z893" s="3"/>
     </row>
     <row r="894" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W894" s="13"/>
-      <c r="Z894" s="13"/>
+      <c r="W894" s="3"/>
+      <c r="Z894" s="3"/>
     </row>
     <row r="895" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W895" s="13"/>
-      <c r="Z895" s="13"/>
+      <c r="W895" s="3"/>
+      <c r="Z895" s="3"/>
     </row>
     <row r="896" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W896" s="13"/>
-      <c r="Z896" s="13"/>
+      <c r="W896" s="3"/>
+      <c r="Z896" s="3"/>
     </row>
     <row r="897" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W897" s="13"/>
-      <c r="Z897" s="13"/>
+      <c r="W897" s="3"/>
+      <c r="Z897" s="3"/>
     </row>
     <row r="898" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W898" s="13"/>
-      <c r="Z898" s="13"/>
+      <c r="W898" s="3"/>
+      <c r="Z898" s="3"/>
     </row>
     <row r="899" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W899" s="13"/>
-      <c r="Z899" s="13"/>
+      <c r="W899" s="3"/>
+      <c r="Z899" s="3"/>
     </row>
     <row r="900" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W900" s="13"/>
-      <c r="Z900" s="13"/>
+      <c r="W900" s="3"/>
+      <c r="Z900" s="3"/>
     </row>
     <row r="901" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W901" s="13"/>
-      <c r="Z901" s="13"/>
+      <c r="W901" s="3"/>
+      <c r="Z901" s="3"/>
     </row>
     <row r="902" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W902" s="13"/>
-      <c r="Z902" s="13"/>
+      <c r="W902" s="3"/>
+      <c r="Z902" s="3"/>
     </row>
     <row r="903" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W903" s="13"/>
-      <c r="Z903" s="13"/>
+      <c r="W903" s="3"/>
+      <c r="Z903" s="3"/>
     </row>
     <row r="904" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W904" s="13"/>
-      <c r="Z904" s="13"/>
+      <c r="W904" s="3"/>
+      <c r="Z904" s="3"/>
     </row>
     <row r="905" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W905" s="13"/>
-      <c r="Z905" s="13"/>
+      <c r="W905" s="3"/>
+      <c r="Z905" s="3"/>
     </row>
     <row r="906" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W906" s="13"/>
-      <c r="Z906" s="13"/>
+      <c r="W906" s="3"/>
+      <c r="Z906" s="3"/>
     </row>
     <row r="907" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W907" s="13"/>
-      <c r="Z907" s="13"/>
+      <c r="W907" s="3"/>
+      <c r="Z907" s="3"/>
     </row>
     <row r="908" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W908" s="13"/>
-      <c r="Z908" s="13"/>
+      <c r="W908" s="3"/>
+      <c r="Z908" s="3"/>
     </row>
     <row r="909" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W909" s="13"/>
-      <c r="Z909" s="13"/>
+      <c r="W909" s="3"/>
+      <c r="Z909" s="3"/>
     </row>
     <row r="910" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W910" s="13"/>
-      <c r="Z910" s="13"/>
+      <c r="W910" s="3"/>
+      <c r="Z910" s="3"/>
     </row>
     <row r="911" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W911" s="13"/>
-      <c r="Z911" s="13"/>
+      <c r="W911" s="3"/>
+      <c r="Z911" s="3"/>
     </row>
     <row r="912" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W912" s="13"/>
-      <c r="Z912" s="13"/>
+      <c r="W912" s="3"/>
+      <c r="Z912" s="3"/>
     </row>
     <row r="913" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W913" s="13"/>
-      <c r="Z913" s="13"/>
+      <c r="W913" s="3"/>
+      <c r="Z913" s="3"/>
     </row>
     <row r="914" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W914" s="13"/>
-      <c r="Z914" s="13"/>
+      <c r="W914" s="3"/>
+      <c r="Z914" s="3"/>
     </row>
     <row r="915" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W915" s="13"/>
-      <c r="Z915" s="13"/>
+      <c r="W915" s="3"/>
+      <c r="Z915" s="3"/>
     </row>
     <row r="916" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W916" s="13"/>
-      <c r="Z916" s="13"/>
+      <c r="W916" s="3"/>
+      <c r="Z916" s="3"/>
     </row>
     <row r="917" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W917" s="13"/>
-      <c r="Z917" s="13"/>
+      <c r="W917" s="3"/>
+      <c r="Z917" s="3"/>
     </row>
     <row r="918" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W918" s="13"/>
-      <c r="Z918" s="13"/>
+      <c r="W918" s="3"/>
+      <c r="Z918" s="3"/>
     </row>
     <row r="919" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W919" s="13"/>
-      <c r="Z919" s="13"/>
+      <c r="W919" s="3"/>
+      <c r="Z919" s="3"/>
     </row>
     <row r="920" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W920" s="13"/>
-      <c r="Z920" s="13"/>
+      <c r="W920" s="3"/>
+      <c r="Z920" s="3"/>
     </row>
     <row r="921" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W921" s="13"/>
-      <c r="Z921" s="13"/>
+      <c r="W921" s="3"/>
+      <c r="Z921" s="3"/>
     </row>
     <row r="922" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W922" s="13"/>
-      <c r="Z922" s="13"/>
+      <c r="W922" s="3"/>
+      <c r="Z922" s="3"/>
     </row>
     <row r="923" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W923" s="13"/>
-      <c r="Z923" s="13"/>
+      <c r="W923" s="3"/>
+      <c r="Z923" s="3"/>
     </row>
     <row r="924" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W924" s="13"/>
-      <c r="Z924" s="13"/>
+      <c r="W924" s="3"/>
+      <c r="Z924" s="3"/>
     </row>
     <row r="925" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W925" s="13"/>
-      <c r="Z925" s="13"/>
+      <c r="W925" s="3"/>
+      <c r="Z925" s="3"/>
     </row>
     <row r="926" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W926" s="13"/>
-      <c r="Z926" s="13"/>
+      <c r="W926" s="3"/>
+      <c r="Z926" s="3"/>
     </row>
     <row r="927" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W927" s="13"/>
-      <c r="Z927" s="13"/>
+      <c r="W927" s="3"/>
+      <c r="Z927" s="3"/>
     </row>
     <row r="928" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W928" s="13"/>
-      <c r="Z928" s="13"/>
+      <c r="W928" s="3"/>
+      <c r="Z928" s="3"/>
     </row>
     <row r="929" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W929" s="13"/>
-      <c r="Z929" s="13"/>
+      <c r="W929" s="3"/>
+      <c r="Z929" s="3"/>
     </row>
     <row r="930" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W930" s="13"/>
-      <c r="Z930" s="13"/>
+      <c r="W930" s="3"/>
+      <c r="Z930" s="3"/>
     </row>
     <row r="931" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W931" s="13"/>
-      <c r="Z931" s="13"/>
+      <c r="W931" s="3"/>
+      <c r="Z931" s="3"/>
     </row>
     <row r="932" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W932" s="13"/>
-      <c r="Z932" s="13"/>
+      <c r="W932" s="3"/>
+      <c r="Z932" s="3"/>
     </row>
     <row r="933" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W933" s="13"/>
-      <c r="Z933" s="13"/>
+      <c r="W933" s="3"/>
+      <c r="Z933" s="3"/>
     </row>
     <row r="934" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W934" s="13"/>
-      <c r="Z934" s="13"/>
+      <c r="W934" s="3"/>
+      <c r="Z934" s="3"/>
     </row>
     <row r="935" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W935" s="13"/>
-      <c r="Z935" s="13"/>
+      <c r="W935" s="3"/>
+      <c r="Z935" s="3"/>
     </row>
     <row r="936" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W936" s="13"/>
-      <c r="Z936" s="13"/>
+      <c r="W936" s="3"/>
+      <c r="Z936" s="3"/>
     </row>
     <row r="937" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W937" s="13"/>
-      <c r="Z937" s="13"/>
+      <c r="W937" s="3"/>
+      <c r="Z937" s="3"/>
     </row>
     <row r="938" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W938" s="13"/>
-      <c r="Z938" s="13"/>
+      <c r="W938" s="3"/>
+      <c r="Z938" s="3"/>
     </row>
     <row r="939" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W939" s="13"/>
-      <c r="Z939" s="13"/>
+      <c r="W939" s="3"/>
+      <c r="Z939" s="3"/>
     </row>
     <row r="940" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W940" s="13"/>
-      <c r="Z940" s="13"/>
+      <c r="W940" s="3"/>
+      <c r="Z940" s="3"/>
     </row>
     <row r="941" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W941" s="13"/>
-      <c r="Z941" s="13"/>
+      <c r="W941" s="3"/>
+      <c r="Z941" s="3"/>
     </row>
     <row r="942" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W942" s="13"/>
-      <c r="Z942" s="13"/>
+      <c r="W942" s="3"/>
+      <c r="Z942" s="3"/>
     </row>
     <row r="943" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W943" s="13"/>
-      <c r="Z943" s="13"/>
+      <c r="W943" s="3"/>
+      <c r="Z943" s="3"/>
     </row>
     <row r="944" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W944" s="13"/>
-      <c r="Z944" s="13"/>
+      <c r="W944" s="3"/>
+      <c r="Z944" s="3"/>
     </row>
     <row r="945" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W945" s="13"/>
-      <c r="Z945" s="13"/>
+      <c r="W945" s="3"/>
+      <c r="Z945" s="3"/>
     </row>
     <row r="946" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W946" s="13"/>
-      <c r="Z946" s="13"/>
+      <c r="W946" s="3"/>
+      <c r="Z946" s="3"/>
     </row>
     <row r="947" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W947" s="13"/>
-      <c r="Z947" s="13"/>
+      <c r="W947" s="3"/>
+      <c r="Z947" s="3"/>
     </row>
     <row r="948" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W948" s="13"/>
-      <c r="Z948" s="13"/>
+      <c r="W948" s="3"/>
+      <c r="Z948" s="3"/>
     </row>
     <row r="949" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W949" s="13"/>
-      <c r="Z949" s="13"/>
+      <c r="W949" s="3"/>
+      <c r="Z949" s="3"/>
     </row>
     <row r="950" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W950" s="13"/>
-      <c r="Z950" s="13"/>
+      <c r="W950" s="3"/>
+      <c r="Z950" s="3"/>
     </row>
     <row r="951" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W951" s="13"/>
-      <c r="Z951" s="13"/>
+      <c r="W951" s="3"/>
+      <c r="Z951" s="3"/>
     </row>
     <row r="952" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W952" s="13"/>
-      <c r="Z952" s="13"/>
+      <c r="W952" s="3"/>
+      <c r="Z952" s="3"/>
     </row>
     <row r="953" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W953" s="13"/>
-      <c r="Z953" s="13"/>
+      <c r="W953" s="3"/>
+      <c r="Z953" s="3"/>
     </row>
     <row r="954" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W954" s="13"/>
-      <c r="Z954" s="13"/>
+      <c r="W954" s="3"/>
+      <c r="Z954" s="3"/>
     </row>
     <row r="955" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W955" s="13"/>
-      <c r="Z955" s="13"/>
+      <c r="W955" s="3"/>
+      <c r="Z955" s="3"/>
     </row>
     <row r="956" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W956" s="13"/>
-      <c r="Z956" s="13"/>
+      <c r="W956" s="3"/>
+      <c r="Z956" s="3"/>
     </row>
     <row r="957" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W957" s="13"/>
-      <c r="Z957" s="13"/>
+      <c r="W957" s="3"/>
+      <c r="Z957" s="3"/>
     </row>
     <row r="958" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W958" s="13"/>
-      <c r="Z958" s="13"/>
+      <c r="W958" s="3"/>
+      <c r="Z958" s="3"/>
     </row>
     <row r="959" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W959" s="13"/>
-      <c r="Z959" s="13"/>
+      <c r="W959" s="3"/>
+      <c r="Z959" s="3"/>
     </row>
     <row r="960" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W960" s="13"/>
-      <c r="Z960" s="13"/>
+      <c r="W960" s="3"/>
+      <c r="Z960" s="3"/>
     </row>
     <row r="961" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W961" s="13"/>
-      <c r="Z961" s="13"/>
+      <c r="W961" s="3"/>
+      <c r="Z961" s="3"/>
     </row>
     <row r="962" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W962" s="13"/>
-      <c r="Z962" s="13"/>
+      <c r="W962" s="3"/>
+      <c r="Z962" s="3"/>
     </row>
     <row r="963" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W963" s="13"/>
-      <c r="Z963" s="13"/>
+      <c r="W963" s="3"/>
+      <c r="Z963" s="3"/>
     </row>
     <row r="964" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W964" s="13"/>
-      <c r="Z964" s="13"/>
+      <c r="W964" s="3"/>
+      <c r="Z964" s="3"/>
     </row>
     <row r="965" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W965" s="13"/>
-      <c r="Z965" s="13"/>
+      <c r="W965" s="3"/>
+      <c r="Z965" s="3"/>
     </row>
     <row r="966" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W966" s="13"/>
-      <c r="Z966" s="13"/>
+      <c r="W966" s="3"/>
+      <c r="Z966" s="3"/>
     </row>
     <row r="967" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W967" s="13"/>
-      <c r="Z967" s="13"/>
+      <c r="W967" s="3"/>
+      <c r="Z967" s="3"/>
     </row>
     <row r="968" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W968" s="13"/>
-      <c r="Z968" s="13"/>
+      <c r="W968" s="3"/>
+      <c r="Z968" s="3"/>
     </row>
     <row r="969" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W969" s="13"/>
-      <c r="Z969" s="13"/>
+      <c r="W969" s="3"/>
+      <c r="Z969" s="3"/>
     </row>
     <row r="970" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W970" s="13"/>
-      <c r="Z970" s="13"/>
+      <c r="W970" s="3"/>
+      <c r="Z970" s="3"/>
     </row>
     <row r="971" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W971" s="13"/>
-      <c r="Z971" s="13"/>
+      <c r="W971" s="3"/>
+      <c r="Z971" s="3"/>
     </row>
     <row r="972" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W972" s="13"/>
-      <c r="Z972" s="13"/>
+      <c r="W972" s="3"/>
+      <c r="Z972" s="3"/>
     </row>
     <row r="973" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W973" s="13"/>
-      <c r="Z973" s="13"/>
+      <c r="W973" s="3"/>
+      <c r="Z973" s="3"/>
     </row>
     <row r="974" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W974" s="13"/>
-      <c r="Z974" s="13"/>
+      <c r="W974" s="3"/>
+      <c r="Z974" s="3"/>
     </row>
     <row r="975" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W975" s="13"/>
-      <c r="Z975" s="13"/>
+      <c r="W975" s="3"/>
+      <c r="Z975" s="3"/>
     </row>
     <row r="976" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W976" s="13"/>
-      <c r="Z976" s="13"/>
+      <c r="W976" s="3"/>
+      <c r="Z976" s="3"/>
     </row>
     <row r="977" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W977" s="13"/>
-      <c r="Z977" s="13"/>
+      <c r="W977" s="3"/>
+      <c r="Z977" s="3"/>
     </row>
     <row r="978" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W978" s="13"/>
-      <c r="Z978" s="13"/>
+      <c r="W978" s="3"/>
+      <c r="Z978" s="3"/>
     </row>
     <row r="979" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W979" s="13"/>
-      <c r="Z979" s="13"/>
+      <c r="W979" s="3"/>
+      <c r="Z979" s="3"/>
     </row>
     <row r="980" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W980" s="13"/>
-      <c r="Z980" s="13"/>
+      <c r="W980" s="3"/>
+      <c r="Z980" s="3"/>
     </row>
     <row r="981" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W981" s="13"/>
-      <c r="Z981" s="13"/>
+      <c r="W981" s="3"/>
+      <c r="Z981" s="3"/>
     </row>
     <row r="982" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W982" s="13"/>
-      <c r="Z982" s="13"/>
+      <c r="W982" s="3"/>
+      <c r="Z982" s="3"/>
     </row>
     <row r="983" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W983" s="13"/>
-      <c r="Z983" s="13"/>
+      <c r="W983" s="3"/>
+      <c r="Z983" s="3"/>
     </row>
     <row r="984" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W984" s="13"/>
-      <c r="Z984" s="13"/>
+      <c r="W984" s="3"/>
+      <c r="Z984" s="3"/>
     </row>
     <row r="985" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W985" s="13"/>
-      <c r="Z985" s="13"/>
+      <c r="W985" s="3"/>
+      <c r="Z985" s="3"/>
     </row>
     <row r="986" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W986" s="13"/>
-      <c r="Z986" s="13"/>
+      <c r="W986" s="3"/>
+      <c r="Z986" s="3"/>
     </row>
     <row r="987" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W987" s="13"/>
-      <c r="Z987" s="13"/>
+      <c r="W987" s="3"/>
+      <c r="Z987" s="3"/>
     </row>
     <row r="988" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W988" s="13"/>
-      <c r="Z988" s="13"/>
+      <c r="W988" s="3"/>
+      <c r="Z988" s="3"/>
     </row>
     <row r="989" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W989" s="13"/>
-      <c r="Z989" s="13"/>
+      <c r="W989" s="3"/>
+      <c r="Z989" s="3"/>
     </row>
     <row r="990" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W990" s="13"/>
-      <c r="Z990" s="13"/>
+      <c r="W990" s="3"/>
+      <c r="Z990" s="3"/>
     </row>
     <row r="991" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W991" s="13"/>
-      <c r="Z991" s="13"/>
+      <c r="W991" s="3"/>
+      <c r="Z991" s="3"/>
     </row>
     <row r="992" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W992" s="13"/>
-      <c r="Z992" s="13"/>
+      <c r="W992" s="3"/>
+      <c r="Z992" s="3"/>
     </row>
     <row r="993" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W993" s="13"/>
-      <c r="Z993" s="13"/>
+      <c r="W993" s="3"/>
+      <c r="Z993" s="3"/>
     </row>
     <row r="994" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W994" s="13"/>
-      <c r="Z994" s="13"/>
+      <c r="W994" s="3"/>
+      <c r="Z994" s="3"/>
     </row>
     <row r="995" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W995" s="13"/>
-      <c r="Z995" s="13"/>
+      <c r="W995" s="3"/>
+      <c r="Z995" s="3"/>
     </row>
     <row r="996" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W996" s="13"/>
-      <c r="Z996" s="13"/>
+      <c r="W996" s="3"/>
+      <c r="Z996" s="3"/>
     </row>
     <row r="997" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W997" s="13"/>
-      <c r="Z997" s="13"/>
+      <c r="W997" s="3"/>
+      <c r="Z997" s="3"/>
     </row>
     <row r="998" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W998" s="13"/>
-      <c r="Z998" s="13"/>
+      <c r="W998" s="3"/>
+      <c r="Z998" s="3"/>
     </row>
     <row r="999" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W999" s="13"/>
-      <c r="Z999" s="13"/>
+      <c r="W999" s="3"/>
+      <c r="Z999" s="3"/>
     </row>
     <row r="1000" spans="23:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W1000" s="13"/>
-      <c r="Z1000" s="13"/>
+      <c r="W1000" s="3"/>
+      <c r="Z1000" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
